--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -325,7 +325,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <headerFooter differentFirst="true">
-    <firstHeader>&amp;C世鑫录像与地泵数据比对2019年05月</firstHeader>
+    <firstHeader>&amp;C&amp;B&amp;16&amp;"微软雅黑,常规"世鑫录像与地泵数据比对2019年05月</firstHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="汇总" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -316,16 +316,44 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="true" max="6" min="6" width="20"/>
+    <col customWidth="true" max="5" min="5" width="20"/>
+    <col customWidth="true" max="4" min="4" width="50"/>
+    <col customWidth="true" max="3" min="3" width="80"/>
+    <col customWidth="true" max="2" min="2" width="50"/>
+    <col customWidth="true" max="1" min="1" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>地泵数据</v>
+      </c>
+      <c r="C1" t="str">
+        <v>录像数据</v>
+      </c>
+      <c r="D1" t="str">
+        <v>比对结果</v>
+      </c>
+      <c r="E1" t="str">
+        <v>地泵明细</v>
+      </c>
+      <c r="F1" t="str">
+        <v>录像明细</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter differentFirst="true">
-    <firstHeader>&amp;C&amp;B&amp;16&amp;"微软雅黑,常规"世鑫录像与地泵数据比对2019年05月</firstHeader>
+    <firstHeader>&amp;C&amp;B&amp;16&amp;"微软雅黑,常规"世鑫录像与地泵数据比对2019年07月</firstHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -15,11 +15,53 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -37,7 +79,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -49,11 +133,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -323,31 +425,31 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col customWidth="true" max="6" min="6" width="20"/>
-    <col customWidth="true" max="5" min="5" width="20"/>
-    <col customWidth="true" max="4" min="4" width="50"/>
-    <col customWidth="true" max="3" min="3" width="80"/>
-    <col customWidth="true" max="2" min="2" width="50"/>
-    <col customWidth="true" max="1" min="1" width="20"/>
+    <col customWidth="true" max="6" min="6" width="16"/>
+    <col customWidth="true" max="5" min="5" width="16"/>
+    <col customWidth="true" max="4" min="4" width="36"/>
+    <col customWidth="true" max="3" min="3" width="48"/>
+    <col customWidth="true" max="2" min="2" width="40"/>
+    <col customWidth="true" max="1" min="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>日期</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="2" t="str">
         <v>地泵数据</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="3" t="str">
         <v>录像数据</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <v>比对结果</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="5" t="str">
         <v>地泵明细</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="6" t="str">
         <v>录像明细</v>
       </c>
     </row>

--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -88,45 +88,93 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -425,31 +473,31 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col customWidth="true" max="6" min="6" width="16"/>
-    <col customWidth="true" max="5" min="5" width="16"/>
     <col customWidth="true" max="4" min="4" width="36"/>
     <col customWidth="true" max="3" min="3" width="48"/>
     <col customWidth="true" max="2" min="2" width="40"/>
     <col customWidth="true" max="1" min="1" width="16"/>
+    <col customWidth="true" max="6" min="6" width="16"/>
+    <col customWidth="true" max="5" min="5" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="3" t="str">
         <v>日期</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <v>地泵数据</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="5" t="str">
         <v>录像数据</v>
       </c>
-      <c r="D1" s="4" t="str">
+      <c r="D1" s="6" t="str">
         <v>比对结果</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="1" t="str">
         <v>地泵明细</v>
       </c>
-      <c r="F1" s="6" t="str">
+      <c r="F1" s="2" t="str">
         <v>录像明细</v>
       </c>
     </row>

--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -1,85 +1,536 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总" sheetId="2" r:id="rId4"/>
+    <sheet name="汇总" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+  </externalReferences>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>地泵数据</t>
+  </si>
+  <si>
+    <t>录像数据</t>
+  </si>
+  <si>
+    <t>比对结果</t>
+  </si>
+  <si>
+    <t>地泵明细</t>
+  </si>
+  <si>
+    <t>录像明细</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-02</t>
+  </si>
+  <si>
+    <t>2019-07-03</t>
+  </si>
+  <si>
+    <t>2019-07-04</t>
+  </si>
+  <si>
+    <t>2019-07-05</t>
+  </si>
+  <si>
+    <t>2019-07-06</t>
+  </si>
+  <si>
+    <t>2019-07-07</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-09</t>
+  </si>
+  <si>
+    <t>2019-07-10</t>
+  </si>
+  <si>
+    <t>2019-07-11</t>
+  </si>
+  <si>
+    <t>2019-07-12</t>
+  </si>
+  <si>
+    <t>2019-07-13</t>
+  </si>
+  <si>
+    <t>2019-07-14</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-07-16</t>
+  </si>
+  <si>
+    <t>2019-07-17</t>
+  </si>
+  <si>
+    <t>2019-07-18</t>
+  </si>
+  <si>
+    <t>2019-07-19</t>
+  </si>
+  <si>
+    <t>2019-07-20</t>
+  </si>
+  <si>
+    <t>2019-07-21</t>
+  </si>
+  <si>
+    <t>2019-07-22</t>
+  </si>
+  <si>
+    <t>2019-07-23</t>
+  </si>
+  <si>
+    <t>2019-07-24</t>
+  </si>
+  <si>
+    <t>2019-07-25</t>
+  </si>
+  <si>
+    <t>2019-07-26</t>
+  </si>
+  <si>
+    <t>2019-07-27</t>
+  </si>
+  <si>
+    <t>2019-07-28</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-07-30</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b>true</b>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b>true</b>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b>true</b>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b>true</b>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b>true</b>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b>true</b>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,111 +554,1032 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：14  矿粉：16  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：43  水渣：10  矿粉：28  其他：5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：37  水渣：5  矿粉：26  其他：6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：10  矿粉：17  其他：3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：47  水渣：8  矿粉：34  其他：5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：45  水渣：9  矿粉：34  其他：2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：48  水渣：12  矿粉：28  其他：8</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：41  水渣：9  矿粉：32  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：34  水渣：13  矿粉：21  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：28  水渣：11  矿粉：17  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：4  矿粉：20  其他：6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：33  水渣：12  矿粉：21  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：28  水渣：1  矿粉：19  其他：8</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：41  水渣：4  矿粉：30  其他：7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：45  水渣：14  矿粉：26  其他：5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：44  水渣：22  矿粉：22  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：29  水渣：20  矿粉：9  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：26  水渣：15  矿粉：11  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：7  矿粉：21  其他：2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：25  水渣：9  矿粉：16  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：33  水渣：7  矿粉：26  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：27  水渣：11  矿粉：16  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：34  水渣：12  矿粉：22  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：43  水渣：25  矿粉：18  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：35  水渣：21  矿粉：14  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：11  矿粉：19  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：8  矿粉：22  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：30  水渣：3  矿粉：24  其他：3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：44  水渣：4  矿粉：33  其他：7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：28  水渣：13  矿粉：15  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="称重记录"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>总车数：24  水渣：3  矿粉：21  其他：0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -253,7 +1625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +1660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -462,47 +1834,329 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="true" max="4" min="4" width="36"/>
-    <col customWidth="true" max="3" min="3" width="48"/>
-    <col customWidth="true" max="2" min="2" width="40"/>
-    <col customWidth="true" max="1" min="1" width="16"/>
-    <col customWidth="true" max="6" min="6" width="16"/>
-    <col customWidth="true" max="5" min="5" width="16"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>日期</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>地泵数据</v>
-      </c>
-      <c r="C1" s="5" t="str">
-        <v>录像数据</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <v>比对结果</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>地泵明细</v>
-      </c>
-      <c r="F1" s="2" t="str">
-        <v>录像明细</v>
+    <row r="1" ht="18" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>[7]称重记录!$C$3</f>
+        <v>总车数：44  水渣：4  矿粉：33  其他：7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>[19]称重记录!$C$3</f>
+        <v>总车数：30  水渣：4  矿粉：20  其他：6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>[20]称重记录!$C$3</f>
+        <v>总车数：28  水渣：1  矿粉：19  其他：8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>[21]称重记录!$C$3</f>
+        <v>总车数：41  水渣：4  矿粉：30  其他：7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>[22]称重记录!$C$3</f>
+        <v>总车数：45  水渣：14  矿粉：26  其他：5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>[23]称重记录!$C$3</f>
+        <v>总车数：44  水渣：22  矿粉：22  其他：0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>[24]称重记录!$C$3</f>
+        <v>总车数：29  水渣：20  矿粉：9  其他：0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>[25]称重记录!$C$3</f>
+        <v>总车数：26  水渣：15  矿粉：11  其他：0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>[26]称重记录!$C$3</f>
+        <v>总车数：30  水渣：7  矿粉：21  其他：2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>[27]称重记录!$C$3</f>
+        <v>总车数：25  水渣：9  矿粉：16  其他：0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>[28]称重记录!$C$3</f>
+        <v>总车数：33  水渣：7  矿粉：26  其他：0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>[29]称重记录!$C$3</f>
+        <v>总车数：27  水渣：11  矿粉：16  其他：0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>[30]称重记录!$C$3</f>
+        <v>总车数：43  水渣：25  矿粉：18  其他：0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>[31]称重记录!$C$3</f>
+        <v>总车数：35  水渣：21  矿粉：14  其他：0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>[1]称重记录!$C$3</f>
+        <v>总车数：30  水渣：14  矿粉：16  其他：0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>[2]称重记录!$C$3</f>
+        <v>总车数：33  水渣：12  矿粉：21  其他：0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>[3]称重记录!$C$3</f>
+        <v>总车数：34  水渣：12  矿粉：22  其他：0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>[4]称重记录!$C$3</f>
+        <v>总车数：30  水渣：11  矿粉：19  其他：0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>[5]称重记录!$C$3</f>
+        <v>总车数：30  水渣：8  矿粉：22  其他：0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>[6]称重记录!$C$3</f>
+        <v>总车数：30  水渣：3  矿粉：24  其他：3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>[8]称重记录!$C$3</f>
+        <v>总车数：28  水渣：13  矿粉：15  其他：0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>[9]称重记录!$C$3</f>
+        <v>总车数：24  水渣：3  矿粉：21  其他：0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>[10]称重记录!$C$3</f>
+        <v>总车数：43  水渣：10  矿粉：28  其他：5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>[11]称重记录!$C$3</f>
+        <v>总车数：37  水渣：5  矿粉：26  其他：6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f>[12]称重记录!$C$3</f>
+        <v>总车数：30  水渣：10  矿粉：17  其他：3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f>[13]称重记录!$C$3</f>
+        <v>总车数：47  水渣：8  矿粉：34  其他：5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f>[14]称重记录!$C$3</f>
+        <v>总车数：45  水渣：9  矿粉：34  其他：2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f>[15]称重记录!$C$3</f>
+        <v>总车数：48  水渣：12  矿粉：28  其他：8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f>[16]称重记录!$C$3</f>
+        <v>总车数：41  水渣：9  矿粉：32  其他：0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f>[17]称重记录!$C$3</f>
+        <v>总车数：34  水渣：13  矿粉：21  其他：0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f>[18]称重记录!$C$3</f>
+        <v>总车数：28  水渣：11  矿粉：17  其他：0</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter differentFirst="true">
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter differentFirst="1">
     <firstHeader>&amp;C&amp;B&amp;16&amp;"微软雅黑,常规"世鑫录像与地泵数据比对2019年07月</firstHeader>
   </headerFooter>
 </worksheet>

--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -16,7 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="82">
+  <fonts count="83">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +580,13 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -595,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="209">
+  <borders count="529">
     <border>
       <left/>
       <right/>
@@ -3723,11 +3730,4811 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="529">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3750,14 +8557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3768,14 +8575,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3786,14 +8593,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3804,14 +8611,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3822,14 +8629,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3840,14 +8647,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3858,14 +8665,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3876,14 +8683,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3894,14 +8701,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3912,14 +8719,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="65" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3930,14 +8737,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3948,14 +8755,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="77" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3966,14 +8773,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="83" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3984,14 +8791,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="89" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4002,14 +8809,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4020,14 +8827,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="101" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4038,14 +8845,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="107" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4056,14 +8863,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="113" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4074,14 +8881,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="119" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4092,14 +8899,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="125" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4110,14 +8917,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="131" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4128,14 +8935,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="137" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4146,14 +8953,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="143" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4164,14 +8971,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="149" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4182,14 +8989,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="155" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4200,14 +9007,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="161" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4218,14 +9025,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="167" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4236,14 +9043,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="173" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4254,14 +9061,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="179" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4272,14 +9079,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="185" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4290,14 +9097,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="191" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4308,14 +9115,14 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="193" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="197" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -4351,6 +9158,966 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="208" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="212" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="218" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="219" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="220" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="239" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="240" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="250" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="251" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="252" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="254" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="255" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="256" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="259" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="260" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="261" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="262" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="263" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="264" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="266" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="267" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="268" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="271" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="280" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="282" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="287" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="288" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="294" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="295" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="296" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="303" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="304" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="306" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="308" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="310" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="311" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="312" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="314" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="315" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="316" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="317" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="318" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="319" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="320" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="322" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="323" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="324" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="326" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="327" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="330" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="331" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="332" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="336" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="338" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="339" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="340" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="343" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="344" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="346" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="347" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="348" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="350" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="351" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="352" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="354" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="355" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="356" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="359" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="360" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="362" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="363" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="364" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="366" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="367" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="368" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="370" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="371" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="372" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="375" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="376" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="378" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="379" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="380" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="382" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="383" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="384" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="386" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="387" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="388" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="391" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="392" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="394" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="395" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="396" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="399" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="400" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="402" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="403" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="404" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="406" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="407" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="408" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="410" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="411" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="412" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="415" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="416" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="418" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="419" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="420" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="422" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="423" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="424" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="426" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="427" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="431" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="434" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="435" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="436" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="438" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="439" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="440" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="441" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="442" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="443" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="444" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="445" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="446" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="447" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="448" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="450" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="451" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="452" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="454" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="455" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="456" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="457" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="458" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="459" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="460" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="462" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="463" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="464" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="466" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="467" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="468" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="469" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="470" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="471" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="472" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="473" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="474" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="475" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="476" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="478" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="479" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="480" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="482" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="483" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="484" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="485" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="486" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="487" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="488" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="490" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="491" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="492" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="494" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="495" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="496" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="498" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="499" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="500" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="503" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="504" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="506" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="507" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="508" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="510" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="511" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="512" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="514" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="515" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="516" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="518" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="519" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="520" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="522" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="523" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="524" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="526" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="527" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4625,31 +10392,31 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
+    <col customWidth="true" max="6" min="6" width="16"/>
+    <col customWidth="true" max="5" min="5" width="16"/>
     <col customWidth="true" max="4" min="4" width="36"/>
     <col customWidth="true" max="3" min="3" width="48"/>
     <col customWidth="true" max="2" min="2" width="40"/>
     <col customWidth="true" max="1" min="1" width="16"/>
-    <col customWidth="true" max="6" min="6" width="16"/>
-    <col customWidth="true" max="5" min="5" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="1" t="str">
         <v>日期</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <v>地泵数据</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="3" t="str">
         <v>录像数据</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="4" t="str">
         <v>比对结果</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="5" t="str">
         <v>地泵明细</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="6" t="str">
         <v>录像明细</v>
       </c>
     </row>
@@ -5216,10 +10983,10 @@
         <v>汇总</v>
       </c>
       <c r="B33" s="194">
-        <f>="总车数："&amp;tmp!B33&amp;"  水渣："&amp;tmp!C33&amp;"  矿粉："&amp;tmp!D33&amp;"  其他："&amp;tmp!E33</f>
+        <f>="总车数："&amp;tmp!B34&amp;"  水渣："&amp;tmp!C34&amp;"  矿粉："&amp;tmp!D34&amp;"  其他："&amp;tmp!E34</f>
       </c>
       <c r="C33" s="195">
-        <f>="总车数："&amp;tmp!G33&amp;"  水渣："&amp;tmp!H33&amp;"  矿粉："&amp;tmp!I33&amp;"  其他："&amp;tmp!J33&amp;"  异常："&amp;tmp!K33</f>
+        <f>="总车数："&amp;tmp!G34&amp;"  水渣："&amp;tmp!H34&amp;"  矿粉："&amp;tmp!I34&amp;"  其他："&amp;tmp!J34&amp;"  异常："&amp;tmp!K34</f>
       </c>
       <c r="D33" s="196"/>
       <c r="E33" s="196"/>
@@ -5259,35 +11026,1059 @@
       <c r="K1" s="198"/>
     </row>
     <row r="2">
-      <c r="A2" s="208" t="str">
+      <c r="A2" s="206" t="str">
         <v>日期</v>
       </c>
-      <c r="B2" s="199" t="str">
+      <c r="B2" s="203" t="str">
         <v>总车数</v>
       </c>
-      <c r="C2" s="200" t="str">
+      <c r="C2" s="199" t="str">
         <v>水渣</v>
       </c>
-      <c r="D2" s="203" t="str">
+      <c r="D2" s="207" t="str">
         <v>矿粉</v>
       </c>
-      <c r="E2" s="201" t="str">
+      <c r="E2" s="200" t="str">
         <v>其他</v>
       </c>
-      <c r="G2" s="204" t="str">
+      <c r="G2" s="201" t="str">
         <v>总车数</v>
       </c>
-      <c r="H2" s="205" t="str">
+      <c r="H2" s="202" t="str">
         <v>水渣</v>
       </c>
-      <c r="I2" s="206" t="str">
+      <c r="I2" s="208" t="str">
         <v>矿粉</v>
       </c>
-      <c r="J2" s="207" t="str">
+      <c r="J2" s="204" t="str">
         <v>其他</v>
       </c>
-      <c r="K2" s="202" t="str">
+      <c r="K2" s="205" t="str">
         <v>异常</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="209" t="str">
+        <v>2019-07-01</v>
+      </c>
+      <c r="B3" s="210">
+        <f>=VALUE(MID(汇总!$B2,FIND("总车数：",汇总!$B2,1)+4,FIND(" ",汇总!$B2,FIND("总车数：",汇总!$B2,1)+4)-(FIND("总车数：",汇总!$B2,1)+4)))</f>
+      </c>
+      <c r="C3" s="211">
+        <f>=VALUE(MID(汇总!$B2,FIND("水渣：",汇总!$B2,1)+3,FIND(" ",汇总!$B2,FIND("水渣：",汇总!$B2,1)+3)-(FIND("水渣：",汇总!$B2,1)+3)))</f>
+      </c>
+      <c r="D3" s="212">
+        <f>=VALUE(MID(汇总!$B2,FIND("矿粉：",汇总!$B2,1)+3,FIND(" ",汇总!$B2,FIND("矿粉：",汇总!$B2,1)+3)-(FIND("矿粉：",汇总!$B2,1)+3)))</f>
+      </c>
+      <c r="E3" s="213">
+        <f>=VALUE(MID(汇总!$B2,FIND("其他：",汇总!$B2,1)+3,3))</f>
+      </c>
+      <c r="G3" s="214">
+        <f>=VALUE(MID(汇总!$C2,FIND("总车数：",汇总!$C2,1)+4,FIND(" ",汇总!$C2,FIND("总车数：",汇总!$C2,1)+4)-(FIND("总车数：",汇总!$C2,1)+4)))</f>
+      </c>
+      <c r="H3" s="215">
+        <f>=VALUE(MID(汇总!$C2,FIND("水渣：",汇总!$C2,1)+3,FIND(" ",汇总!$C2,FIND("水渣：",汇总!$C2,1)+3)-(FIND("水渣：",汇总!$C2,1)+3)))</f>
+      </c>
+      <c r="I3" s="216">
+        <f>=VALUE(MID(汇总!$C2,FIND("矿粉：",汇总!$C2,1)+3,FIND(" ",汇总!$C2,FIND("矿粉：",汇总!$C2,1)+3)-(FIND("矿粉：",汇总!$C2,1)+3)))</f>
+      </c>
+      <c r="J3" s="217">
+        <f>=VALUE(MID(汇总!$C2,FIND("其他：",汇总!$C2,1)+3,FIND(" ",汇总!$C2,FIND("其他：",汇总!$C2,1)+3)-(FIND("其他：",汇总!$C2,1)+3)))</f>
+      </c>
+      <c r="K3" s="218">
+        <f>=VALUE(MID(汇总!$C2,FIND("异常：",汇总!$C2,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="219" t="str">
+        <v>2019-07-02</v>
+      </c>
+      <c r="B4" s="220">
+        <f>=VALUE(MID(汇总!$B3,FIND("总车数：",汇总!$B3,1)+4,FIND(" ",汇总!$B3,FIND("总车数：",汇总!$B3,1)+4)-(FIND("总车数：",汇总!$B3,1)+4)))</f>
+      </c>
+      <c r="C4" s="221">
+        <f>=VALUE(MID(汇总!$B3,FIND("水渣：",汇总!$B3,1)+3,FIND(" ",汇总!$B3,FIND("水渣：",汇总!$B3,1)+3)-(FIND("水渣：",汇总!$B3,1)+3)))</f>
+      </c>
+      <c r="D4" s="222">
+        <f>=VALUE(MID(汇总!$B3,FIND("矿粉：",汇总!$B3,1)+3,FIND(" ",汇总!$B3,FIND("矿粉：",汇总!$B3,1)+3)-(FIND("矿粉：",汇总!$B3,1)+3)))</f>
+      </c>
+      <c r="E4" s="223">
+        <f>=VALUE(MID(汇总!$B3,FIND("其他：",汇总!$B3,1)+3,3))</f>
+      </c>
+      <c r="G4" s="224">
+        <f>=VALUE(MID(汇总!$C3,FIND("总车数：",汇总!$C3,1)+4,FIND(" ",汇总!$C3,FIND("总车数：",汇总!$C3,1)+4)-(FIND("总车数：",汇总!$C3,1)+4)))</f>
+      </c>
+      <c r="H4" s="225">
+        <f>=VALUE(MID(汇总!$C3,FIND("水渣：",汇总!$C3,1)+3,FIND(" ",汇总!$C3,FIND("水渣：",汇总!$C3,1)+3)-(FIND("水渣：",汇总!$C3,1)+3)))</f>
+      </c>
+      <c r="I4" s="226">
+        <f>=VALUE(MID(汇总!$C3,FIND("矿粉：",汇总!$C3,1)+3,FIND(" ",汇总!$C3,FIND("矿粉：",汇总!$C3,1)+3)-(FIND("矿粉：",汇总!$C3,1)+3)))</f>
+      </c>
+      <c r="J4" s="227">
+        <f>=VALUE(MID(汇总!$C3,FIND("其他：",汇总!$C3,1)+3,FIND(" ",汇总!$C3,FIND("其他：",汇总!$C3,1)+3)-(FIND("其他：",汇总!$C3,1)+3)))</f>
+      </c>
+      <c r="K4" s="228">
+        <f>=VALUE(MID(汇总!$C3,FIND("异常：",汇总!$C3,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="229" t="str">
+        <v>2019-07-03</v>
+      </c>
+      <c r="B5" s="230">
+        <f>=VALUE(MID(汇总!$B4,FIND("总车数：",汇总!$B4,1)+4,FIND(" ",汇总!$B4,FIND("总车数：",汇总!$B4,1)+4)-(FIND("总车数：",汇总!$B4,1)+4)))</f>
+      </c>
+      <c r="C5" s="231">
+        <f>=VALUE(MID(汇总!$B4,FIND("水渣：",汇总!$B4,1)+3,FIND(" ",汇总!$B4,FIND("水渣：",汇总!$B4,1)+3)-(FIND("水渣：",汇总!$B4,1)+3)))</f>
+      </c>
+      <c r="D5" s="232">
+        <f>=VALUE(MID(汇总!$B4,FIND("矿粉：",汇总!$B4,1)+3,FIND(" ",汇总!$B4,FIND("矿粉：",汇总!$B4,1)+3)-(FIND("矿粉：",汇总!$B4,1)+3)))</f>
+      </c>
+      <c r="E5" s="233">
+        <f>=VALUE(MID(汇总!$B4,FIND("其他：",汇总!$B4,1)+3,3))</f>
+      </c>
+      <c r="G5" s="234">
+        <f>=VALUE(MID(汇总!$C4,FIND("总车数：",汇总!$C4,1)+4,FIND(" ",汇总!$C4,FIND("总车数：",汇总!$C4,1)+4)-(FIND("总车数：",汇总!$C4,1)+4)))</f>
+      </c>
+      <c r="H5" s="235">
+        <f>=VALUE(MID(汇总!$C4,FIND("水渣：",汇总!$C4,1)+3,FIND(" ",汇总!$C4,FIND("水渣：",汇总!$C4,1)+3)-(FIND("水渣：",汇总!$C4,1)+3)))</f>
+      </c>
+      <c r="I5" s="236">
+        <f>=VALUE(MID(汇总!$C4,FIND("矿粉：",汇总!$C4,1)+3,FIND(" ",汇总!$C4,FIND("矿粉：",汇总!$C4,1)+3)-(FIND("矿粉：",汇总!$C4,1)+3)))</f>
+      </c>
+      <c r="J5" s="237">
+        <f>=VALUE(MID(汇总!$C4,FIND("其他：",汇总!$C4,1)+3,FIND(" ",汇总!$C4,FIND("其他：",汇总!$C4,1)+3)-(FIND("其他：",汇总!$C4,1)+3)))</f>
+      </c>
+      <c r="K5" s="238">
+        <f>=VALUE(MID(汇总!$C4,FIND("异常：",汇总!$C4,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="239" t="str">
+        <v>2019-07-04</v>
+      </c>
+      <c r="B6" s="240">
+        <f>=VALUE(MID(汇总!$B5,FIND("总车数：",汇总!$B5,1)+4,FIND(" ",汇总!$B5,FIND("总车数：",汇总!$B5,1)+4)-(FIND("总车数：",汇总!$B5,1)+4)))</f>
+      </c>
+      <c r="C6" s="241">
+        <f>=VALUE(MID(汇总!$B5,FIND("水渣：",汇总!$B5,1)+3,FIND(" ",汇总!$B5,FIND("水渣：",汇总!$B5,1)+3)-(FIND("水渣：",汇总!$B5,1)+3)))</f>
+      </c>
+      <c r="D6" s="242">
+        <f>=VALUE(MID(汇总!$B5,FIND("矿粉：",汇总!$B5,1)+3,FIND(" ",汇总!$B5,FIND("矿粉：",汇总!$B5,1)+3)-(FIND("矿粉：",汇总!$B5,1)+3)))</f>
+      </c>
+      <c r="E6" s="243">
+        <f>=VALUE(MID(汇总!$B5,FIND("其他：",汇总!$B5,1)+3,3))</f>
+      </c>
+      <c r="G6" s="244">
+        <f>=VALUE(MID(汇总!$C5,FIND("总车数：",汇总!$C5,1)+4,FIND(" ",汇总!$C5,FIND("总车数：",汇总!$C5,1)+4)-(FIND("总车数：",汇总!$C5,1)+4)))</f>
+      </c>
+      <c r="H6" s="245">
+        <f>=VALUE(MID(汇总!$C5,FIND("水渣：",汇总!$C5,1)+3,FIND(" ",汇总!$C5,FIND("水渣：",汇总!$C5,1)+3)-(FIND("水渣：",汇总!$C5,1)+3)))</f>
+      </c>
+      <c r="I6" s="246">
+        <f>=VALUE(MID(汇总!$C5,FIND("矿粉：",汇总!$C5,1)+3,FIND(" ",汇总!$C5,FIND("矿粉：",汇总!$C5,1)+3)-(FIND("矿粉：",汇总!$C5,1)+3)))</f>
+      </c>
+      <c r="J6" s="247">
+        <f>=VALUE(MID(汇总!$C5,FIND("其他：",汇总!$C5,1)+3,FIND(" ",汇总!$C5,FIND("其他：",汇总!$C5,1)+3)-(FIND("其他：",汇总!$C5,1)+3)))</f>
+      </c>
+      <c r="K6" s="248">
+        <f>=VALUE(MID(汇总!$C5,FIND("异常：",汇总!$C5,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="249" t="str">
+        <v>2019-07-05</v>
+      </c>
+      <c r="B7" s="250">
+        <f>=VALUE(MID(汇总!$B6,FIND("总车数：",汇总!$B6,1)+4,FIND(" ",汇总!$B6,FIND("总车数：",汇总!$B6,1)+4)-(FIND("总车数：",汇总!$B6,1)+4)))</f>
+      </c>
+      <c r="C7" s="251">
+        <f>=VALUE(MID(汇总!$B6,FIND("水渣：",汇总!$B6,1)+3,FIND(" ",汇总!$B6,FIND("水渣：",汇总!$B6,1)+3)-(FIND("水渣：",汇总!$B6,1)+3)))</f>
+      </c>
+      <c r="D7" s="252">
+        <f>=VALUE(MID(汇总!$B6,FIND("矿粉：",汇总!$B6,1)+3,FIND(" ",汇总!$B6,FIND("矿粉：",汇总!$B6,1)+3)-(FIND("矿粉：",汇总!$B6,1)+3)))</f>
+      </c>
+      <c r="E7" s="253">
+        <f>=VALUE(MID(汇总!$B6,FIND("其他：",汇总!$B6,1)+3,3))</f>
+      </c>
+      <c r="G7" s="254">
+        <f>=VALUE(MID(汇总!$C6,FIND("总车数：",汇总!$C6,1)+4,FIND(" ",汇总!$C6,FIND("总车数：",汇总!$C6,1)+4)-(FIND("总车数：",汇总!$C6,1)+4)))</f>
+      </c>
+      <c r="H7" s="255">
+        <f>=VALUE(MID(汇总!$C6,FIND("水渣：",汇总!$C6,1)+3,FIND(" ",汇总!$C6,FIND("水渣：",汇总!$C6,1)+3)-(FIND("水渣：",汇总!$C6,1)+3)))</f>
+      </c>
+      <c r="I7" s="256">
+        <f>=VALUE(MID(汇总!$C6,FIND("矿粉：",汇总!$C6,1)+3,FIND(" ",汇总!$C6,FIND("矿粉：",汇总!$C6,1)+3)-(FIND("矿粉：",汇总!$C6,1)+3)))</f>
+      </c>
+      <c r="J7" s="257">
+        <f>=VALUE(MID(汇总!$C6,FIND("其他：",汇总!$C6,1)+3,FIND(" ",汇总!$C6,FIND("其他：",汇总!$C6,1)+3)-(FIND("其他：",汇总!$C6,1)+3)))</f>
+      </c>
+      <c r="K7" s="258">
+        <f>=VALUE(MID(汇总!$C6,FIND("异常：",汇总!$C6,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="259" t="str">
+        <v>2019-07-06</v>
+      </c>
+      <c r="B8" s="260">
+        <f>=VALUE(MID(汇总!$B7,FIND("总车数：",汇总!$B7,1)+4,FIND(" ",汇总!$B7,FIND("总车数：",汇总!$B7,1)+4)-(FIND("总车数：",汇总!$B7,1)+4)))</f>
+      </c>
+      <c r="C8" s="261">
+        <f>=VALUE(MID(汇总!$B7,FIND("水渣：",汇总!$B7,1)+3,FIND(" ",汇总!$B7,FIND("水渣：",汇总!$B7,1)+3)-(FIND("水渣：",汇总!$B7,1)+3)))</f>
+      </c>
+      <c r="D8" s="262">
+        <f>=VALUE(MID(汇总!$B7,FIND("矿粉：",汇总!$B7,1)+3,FIND(" ",汇总!$B7,FIND("矿粉：",汇总!$B7,1)+3)-(FIND("矿粉：",汇总!$B7,1)+3)))</f>
+      </c>
+      <c r="E8" s="263">
+        <f>=VALUE(MID(汇总!$B7,FIND("其他：",汇总!$B7,1)+3,3))</f>
+      </c>
+      <c r="G8" s="264">
+        <f>=VALUE(MID(汇总!$C7,FIND("总车数：",汇总!$C7,1)+4,FIND(" ",汇总!$C7,FIND("总车数：",汇总!$C7,1)+4)-(FIND("总车数：",汇总!$C7,1)+4)))</f>
+      </c>
+      <c r="H8" s="265">
+        <f>=VALUE(MID(汇总!$C7,FIND("水渣：",汇总!$C7,1)+3,FIND(" ",汇总!$C7,FIND("水渣：",汇总!$C7,1)+3)-(FIND("水渣：",汇总!$C7,1)+3)))</f>
+      </c>
+      <c r="I8" s="266">
+        <f>=VALUE(MID(汇总!$C7,FIND("矿粉：",汇总!$C7,1)+3,FIND(" ",汇总!$C7,FIND("矿粉：",汇总!$C7,1)+3)-(FIND("矿粉：",汇总!$C7,1)+3)))</f>
+      </c>
+      <c r="J8" s="267">
+        <f>=VALUE(MID(汇总!$C7,FIND("其他：",汇总!$C7,1)+3,FIND(" ",汇总!$C7,FIND("其他：",汇总!$C7,1)+3)-(FIND("其他：",汇总!$C7,1)+3)))</f>
+      </c>
+      <c r="K8" s="268">
+        <f>=VALUE(MID(汇总!$C7,FIND("异常：",汇总!$C7,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="269" t="str">
+        <v>2019-07-07</v>
+      </c>
+      <c r="B9" s="270">
+        <f>=VALUE(MID(汇总!$B8,FIND("总车数：",汇总!$B8,1)+4,FIND(" ",汇总!$B8,FIND("总车数：",汇总!$B8,1)+4)-(FIND("总车数：",汇总!$B8,1)+4)))</f>
+      </c>
+      <c r="C9" s="271">
+        <f>=VALUE(MID(汇总!$B8,FIND("水渣：",汇总!$B8,1)+3,FIND(" ",汇总!$B8,FIND("水渣：",汇总!$B8,1)+3)-(FIND("水渣：",汇总!$B8,1)+3)))</f>
+      </c>
+      <c r="D9" s="272">
+        <f>=VALUE(MID(汇总!$B8,FIND("矿粉：",汇总!$B8,1)+3,FIND(" ",汇总!$B8,FIND("矿粉：",汇总!$B8,1)+3)-(FIND("矿粉：",汇总!$B8,1)+3)))</f>
+      </c>
+      <c r="E9" s="273">
+        <f>=VALUE(MID(汇总!$B8,FIND("其他：",汇总!$B8,1)+3,3))</f>
+      </c>
+      <c r="G9" s="274">
+        <f>=VALUE(MID(汇总!$C8,FIND("总车数：",汇总!$C8,1)+4,FIND(" ",汇总!$C8,FIND("总车数：",汇总!$C8,1)+4)-(FIND("总车数：",汇总!$C8,1)+4)))</f>
+      </c>
+      <c r="H9" s="275">
+        <f>=VALUE(MID(汇总!$C8,FIND("水渣：",汇总!$C8,1)+3,FIND(" ",汇总!$C8,FIND("水渣：",汇总!$C8,1)+3)-(FIND("水渣：",汇总!$C8,1)+3)))</f>
+      </c>
+      <c r="I9" s="276">
+        <f>=VALUE(MID(汇总!$C8,FIND("矿粉：",汇总!$C8,1)+3,FIND(" ",汇总!$C8,FIND("矿粉：",汇总!$C8,1)+3)-(FIND("矿粉：",汇总!$C8,1)+3)))</f>
+      </c>
+      <c r="J9" s="277">
+        <f>=VALUE(MID(汇总!$C8,FIND("其他：",汇总!$C8,1)+3,FIND(" ",汇总!$C8,FIND("其他：",汇总!$C8,1)+3)-(FIND("其他：",汇总!$C8,1)+3)))</f>
+      </c>
+      <c r="K9" s="278">
+        <f>=VALUE(MID(汇总!$C8,FIND("异常：",汇总!$C8,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="279" t="str">
+        <v>2019-07-08</v>
+      </c>
+      <c r="B10" s="280">
+        <f>=VALUE(MID(汇总!$B9,FIND("总车数：",汇总!$B9,1)+4,FIND(" ",汇总!$B9,FIND("总车数：",汇总!$B9,1)+4)-(FIND("总车数：",汇总!$B9,1)+4)))</f>
+      </c>
+      <c r="C10" s="281">
+        <f>=VALUE(MID(汇总!$B9,FIND("水渣：",汇总!$B9,1)+3,FIND(" ",汇总!$B9,FIND("水渣：",汇总!$B9,1)+3)-(FIND("水渣：",汇总!$B9,1)+3)))</f>
+      </c>
+      <c r="D10" s="282">
+        <f>=VALUE(MID(汇总!$B9,FIND("矿粉：",汇总!$B9,1)+3,FIND(" ",汇总!$B9,FIND("矿粉：",汇总!$B9,1)+3)-(FIND("矿粉：",汇总!$B9,1)+3)))</f>
+      </c>
+      <c r="E10" s="283">
+        <f>=VALUE(MID(汇总!$B9,FIND("其他：",汇总!$B9,1)+3,3))</f>
+      </c>
+      <c r="G10" s="284">
+        <f>=VALUE(MID(汇总!$C9,FIND("总车数：",汇总!$C9,1)+4,FIND(" ",汇总!$C9,FIND("总车数：",汇总!$C9,1)+4)-(FIND("总车数：",汇总!$C9,1)+4)))</f>
+      </c>
+      <c r="H10" s="285">
+        <f>=VALUE(MID(汇总!$C9,FIND("水渣：",汇总!$C9,1)+3,FIND(" ",汇总!$C9,FIND("水渣：",汇总!$C9,1)+3)-(FIND("水渣：",汇总!$C9,1)+3)))</f>
+      </c>
+      <c r="I10" s="286">
+        <f>=VALUE(MID(汇总!$C9,FIND("矿粉：",汇总!$C9,1)+3,FIND(" ",汇总!$C9,FIND("矿粉：",汇总!$C9,1)+3)-(FIND("矿粉：",汇总!$C9,1)+3)))</f>
+      </c>
+      <c r="J10" s="287">
+        <f>=VALUE(MID(汇总!$C9,FIND("其他：",汇总!$C9,1)+3,FIND(" ",汇总!$C9,FIND("其他：",汇总!$C9,1)+3)-(FIND("其他：",汇总!$C9,1)+3)))</f>
+      </c>
+      <c r="K10" s="288">
+        <f>=VALUE(MID(汇总!$C9,FIND("异常：",汇总!$C9,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="289" t="str">
+        <v>2019-07-09</v>
+      </c>
+      <c r="B11" s="290">
+        <f>=VALUE(MID(汇总!$B10,FIND("总车数：",汇总!$B10,1)+4,FIND(" ",汇总!$B10,FIND("总车数：",汇总!$B10,1)+4)-(FIND("总车数：",汇总!$B10,1)+4)))</f>
+      </c>
+      <c r="C11" s="291">
+        <f>=VALUE(MID(汇总!$B10,FIND("水渣：",汇总!$B10,1)+3,FIND(" ",汇总!$B10,FIND("水渣：",汇总!$B10,1)+3)-(FIND("水渣：",汇总!$B10,1)+3)))</f>
+      </c>
+      <c r="D11" s="292">
+        <f>=VALUE(MID(汇总!$B10,FIND("矿粉：",汇总!$B10,1)+3,FIND(" ",汇总!$B10,FIND("矿粉：",汇总!$B10,1)+3)-(FIND("矿粉：",汇总!$B10,1)+3)))</f>
+      </c>
+      <c r="E11" s="293">
+        <f>=VALUE(MID(汇总!$B10,FIND("其他：",汇总!$B10,1)+3,3))</f>
+      </c>
+      <c r="G11" s="294">
+        <f>=VALUE(MID(汇总!$C10,FIND("总车数：",汇总!$C10,1)+4,FIND(" ",汇总!$C10,FIND("总车数：",汇总!$C10,1)+4)-(FIND("总车数：",汇总!$C10,1)+4)))</f>
+      </c>
+      <c r="H11" s="295">
+        <f>=VALUE(MID(汇总!$C10,FIND("水渣：",汇总!$C10,1)+3,FIND(" ",汇总!$C10,FIND("水渣：",汇总!$C10,1)+3)-(FIND("水渣：",汇总!$C10,1)+3)))</f>
+      </c>
+      <c r="I11" s="296">
+        <f>=VALUE(MID(汇总!$C10,FIND("矿粉：",汇总!$C10,1)+3,FIND(" ",汇总!$C10,FIND("矿粉：",汇总!$C10,1)+3)-(FIND("矿粉：",汇总!$C10,1)+3)))</f>
+      </c>
+      <c r="J11" s="297">
+        <f>=VALUE(MID(汇总!$C10,FIND("其他：",汇总!$C10,1)+3,FIND(" ",汇总!$C10,FIND("其他：",汇总!$C10,1)+3)-(FIND("其他：",汇总!$C10,1)+3)))</f>
+      </c>
+      <c r="K11" s="298">
+        <f>=VALUE(MID(汇总!$C10,FIND("异常：",汇总!$C10,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="299" t="str">
+        <v>2019-07-10</v>
+      </c>
+      <c r="B12" s="300">
+        <f>=VALUE(MID(汇总!$B11,FIND("总车数：",汇总!$B11,1)+4,FIND(" ",汇总!$B11,FIND("总车数：",汇总!$B11,1)+4)-(FIND("总车数：",汇总!$B11,1)+4)))</f>
+      </c>
+      <c r="C12" s="301">
+        <f>=VALUE(MID(汇总!$B11,FIND("水渣：",汇总!$B11,1)+3,FIND(" ",汇总!$B11,FIND("水渣：",汇总!$B11,1)+3)-(FIND("水渣：",汇总!$B11,1)+3)))</f>
+      </c>
+      <c r="D12" s="302">
+        <f>=VALUE(MID(汇总!$B11,FIND("矿粉：",汇总!$B11,1)+3,FIND(" ",汇总!$B11,FIND("矿粉：",汇总!$B11,1)+3)-(FIND("矿粉：",汇总!$B11,1)+3)))</f>
+      </c>
+      <c r="E12" s="303">
+        <f>=VALUE(MID(汇总!$B11,FIND("其他：",汇总!$B11,1)+3,3))</f>
+      </c>
+      <c r="G12" s="304">
+        <f>=VALUE(MID(汇总!$C11,FIND("总车数：",汇总!$C11,1)+4,FIND(" ",汇总!$C11,FIND("总车数：",汇总!$C11,1)+4)-(FIND("总车数：",汇总!$C11,1)+4)))</f>
+      </c>
+      <c r="H12" s="305">
+        <f>=VALUE(MID(汇总!$C11,FIND("水渣：",汇总!$C11,1)+3,FIND(" ",汇总!$C11,FIND("水渣：",汇总!$C11,1)+3)-(FIND("水渣：",汇总!$C11,1)+3)))</f>
+      </c>
+      <c r="I12" s="306">
+        <f>=VALUE(MID(汇总!$C11,FIND("矿粉：",汇总!$C11,1)+3,FIND(" ",汇总!$C11,FIND("矿粉：",汇总!$C11,1)+3)-(FIND("矿粉：",汇总!$C11,1)+3)))</f>
+      </c>
+      <c r="J12" s="307">
+        <f>=VALUE(MID(汇总!$C11,FIND("其他：",汇总!$C11,1)+3,FIND(" ",汇总!$C11,FIND("其他：",汇总!$C11,1)+3)-(FIND("其他：",汇总!$C11,1)+3)))</f>
+      </c>
+      <c r="K12" s="308">
+        <f>=VALUE(MID(汇总!$C11,FIND("异常：",汇总!$C11,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="309" t="str">
+        <v>2019-07-11</v>
+      </c>
+      <c r="B13" s="310">
+        <f>=VALUE(MID(汇总!$B12,FIND("总车数：",汇总!$B12,1)+4,FIND(" ",汇总!$B12,FIND("总车数：",汇总!$B12,1)+4)-(FIND("总车数：",汇总!$B12,1)+4)))</f>
+      </c>
+      <c r="C13" s="311">
+        <f>=VALUE(MID(汇总!$B12,FIND("水渣：",汇总!$B12,1)+3,FIND(" ",汇总!$B12,FIND("水渣：",汇总!$B12,1)+3)-(FIND("水渣：",汇总!$B12,1)+3)))</f>
+      </c>
+      <c r="D13" s="312">
+        <f>=VALUE(MID(汇总!$B12,FIND("矿粉：",汇总!$B12,1)+3,FIND(" ",汇总!$B12,FIND("矿粉：",汇总!$B12,1)+3)-(FIND("矿粉：",汇总!$B12,1)+3)))</f>
+      </c>
+      <c r="E13" s="313">
+        <f>=VALUE(MID(汇总!$B12,FIND("其他：",汇总!$B12,1)+3,3))</f>
+      </c>
+      <c r="G13" s="314">
+        <f>=VALUE(MID(汇总!$C12,FIND("总车数：",汇总!$C12,1)+4,FIND(" ",汇总!$C12,FIND("总车数：",汇总!$C12,1)+4)-(FIND("总车数：",汇总!$C12,1)+4)))</f>
+      </c>
+      <c r="H13" s="315">
+        <f>=VALUE(MID(汇总!$C12,FIND("水渣：",汇总!$C12,1)+3,FIND(" ",汇总!$C12,FIND("水渣：",汇总!$C12,1)+3)-(FIND("水渣：",汇总!$C12,1)+3)))</f>
+      </c>
+      <c r="I13" s="316">
+        <f>=VALUE(MID(汇总!$C12,FIND("矿粉：",汇总!$C12,1)+3,FIND(" ",汇总!$C12,FIND("矿粉：",汇总!$C12,1)+3)-(FIND("矿粉：",汇总!$C12,1)+3)))</f>
+      </c>
+      <c r="J13" s="317">
+        <f>=VALUE(MID(汇总!$C12,FIND("其他：",汇总!$C12,1)+3,FIND(" ",汇总!$C12,FIND("其他：",汇总!$C12,1)+3)-(FIND("其他：",汇总!$C12,1)+3)))</f>
+      </c>
+      <c r="K13" s="318">
+        <f>=VALUE(MID(汇总!$C12,FIND("异常：",汇总!$C12,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="319" t="str">
+        <v>2019-07-12</v>
+      </c>
+      <c r="B14" s="320">
+        <f>=VALUE(MID(汇总!$B13,FIND("总车数：",汇总!$B13,1)+4,FIND(" ",汇总!$B13,FIND("总车数：",汇总!$B13,1)+4)-(FIND("总车数：",汇总!$B13,1)+4)))</f>
+      </c>
+      <c r="C14" s="321">
+        <f>=VALUE(MID(汇总!$B13,FIND("水渣：",汇总!$B13,1)+3,FIND(" ",汇总!$B13,FIND("水渣：",汇总!$B13,1)+3)-(FIND("水渣：",汇总!$B13,1)+3)))</f>
+      </c>
+      <c r="D14" s="322">
+        <f>=VALUE(MID(汇总!$B13,FIND("矿粉：",汇总!$B13,1)+3,FIND(" ",汇总!$B13,FIND("矿粉：",汇总!$B13,1)+3)-(FIND("矿粉：",汇总!$B13,1)+3)))</f>
+      </c>
+      <c r="E14" s="323">
+        <f>=VALUE(MID(汇总!$B13,FIND("其他：",汇总!$B13,1)+3,3))</f>
+      </c>
+      <c r="G14" s="324">
+        <f>=VALUE(MID(汇总!$C13,FIND("总车数：",汇总!$C13,1)+4,FIND(" ",汇总!$C13,FIND("总车数：",汇总!$C13,1)+4)-(FIND("总车数：",汇总!$C13,1)+4)))</f>
+      </c>
+      <c r="H14" s="325">
+        <f>=VALUE(MID(汇总!$C13,FIND("水渣：",汇总!$C13,1)+3,FIND(" ",汇总!$C13,FIND("水渣：",汇总!$C13,1)+3)-(FIND("水渣：",汇总!$C13,1)+3)))</f>
+      </c>
+      <c r="I14" s="326">
+        <f>=VALUE(MID(汇总!$C13,FIND("矿粉：",汇总!$C13,1)+3,FIND(" ",汇总!$C13,FIND("矿粉：",汇总!$C13,1)+3)-(FIND("矿粉：",汇总!$C13,1)+3)))</f>
+      </c>
+      <c r="J14" s="327">
+        <f>=VALUE(MID(汇总!$C13,FIND("其他：",汇总!$C13,1)+3,FIND(" ",汇总!$C13,FIND("其他：",汇总!$C13,1)+3)-(FIND("其他：",汇总!$C13,1)+3)))</f>
+      </c>
+      <c r="K14" s="328">
+        <f>=VALUE(MID(汇总!$C13,FIND("异常：",汇总!$C13,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="329" t="str">
+        <v>2019-07-13</v>
+      </c>
+      <c r="B15" s="330">
+        <f>=VALUE(MID(汇总!$B14,FIND("总车数：",汇总!$B14,1)+4,FIND(" ",汇总!$B14,FIND("总车数：",汇总!$B14,1)+4)-(FIND("总车数：",汇总!$B14,1)+4)))</f>
+      </c>
+      <c r="C15" s="331">
+        <f>=VALUE(MID(汇总!$B14,FIND("水渣：",汇总!$B14,1)+3,FIND(" ",汇总!$B14,FIND("水渣：",汇总!$B14,1)+3)-(FIND("水渣：",汇总!$B14,1)+3)))</f>
+      </c>
+      <c r="D15" s="332">
+        <f>=VALUE(MID(汇总!$B14,FIND("矿粉：",汇总!$B14,1)+3,FIND(" ",汇总!$B14,FIND("矿粉：",汇总!$B14,1)+3)-(FIND("矿粉：",汇总!$B14,1)+3)))</f>
+      </c>
+      <c r="E15" s="333">
+        <f>=VALUE(MID(汇总!$B14,FIND("其他：",汇总!$B14,1)+3,3))</f>
+      </c>
+      <c r="G15" s="334">
+        <f>=VALUE(MID(汇总!$C14,FIND("总车数：",汇总!$C14,1)+4,FIND(" ",汇总!$C14,FIND("总车数：",汇总!$C14,1)+4)-(FIND("总车数：",汇总!$C14,1)+4)))</f>
+      </c>
+      <c r="H15" s="335">
+        <f>=VALUE(MID(汇总!$C14,FIND("水渣：",汇总!$C14,1)+3,FIND(" ",汇总!$C14,FIND("水渣：",汇总!$C14,1)+3)-(FIND("水渣：",汇总!$C14,1)+3)))</f>
+      </c>
+      <c r="I15" s="336">
+        <f>=VALUE(MID(汇总!$C14,FIND("矿粉：",汇总!$C14,1)+3,FIND(" ",汇总!$C14,FIND("矿粉：",汇总!$C14,1)+3)-(FIND("矿粉：",汇总!$C14,1)+3)))</f>
+      </c>
+      <c r="J15" s="337">
+        <f>=VALUE(MID(汇总!$C14,FIND("其他：",汇总!$C14,1)+3,FIND(" ",汇总!$C14,FIND("其他：",汇总!$C14,1)+3)-(FIND("其他：",汇总!$C14,1)+3)))</f>
+      </c>
+      <c r="K15" s="338">
+        <f>=VALUE(MID(汇总!$C14,FIND("异常：",汇总!$C14,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="339" t="str">
+        <v>2019-07-14</v>
+      </c>
+      <c r="B16" s="340">
+        <f>=VALUE(MID(汇总!$B15,FIND("总车数：",汇总!$B15,1)+4,FIND(" ",汇总!$B15,FIND("总车数：",汇总!$B15,1)+4)-(FIND("总车数：",汇总!$B15,1)+4)))</f>
+      </c>
+      <c r="C16" s="341">
+        <f>=VALUE(MID(汇总!$B15,FIND("水渣：",汇总!$B15,1)+3,FIND(" ",汇总!$B15,FIND("水渣：",汇总!$B15,1)+3)-(FIND("水渣：",汇总!$B15,1)+3)))</f>
+      </c>
+      <c r="D16" s="342">
+        <f>=VALUE(MID(汇总!$B15,FIND("矿粉：",汇总!$B15,1)+3,FIND(" ",汇总!$B15,FIND("矿粉：",汇总!$B15,1)+3)-(FIND("矿粉：",汇总!$B15,1)+3)))</f>
+      </c>
+      <c r="E16" s="343">
+        <f>=VALUE(MID(汇总!$B15,FIND("其他：",汇总!$B15,1)+3,3))</f>
+      </c>
+      <c r="G16" s="344">
+        <f>=VALUE(MID(汇总!$C15,FIND("总车数：",汇总!$C15,1)+4,FIND(" ",汇总!$C15,FIND("总车数：",汇总!$C15,1)+4)-(FIND("总车数：",汇总!$C15,1)+4)))</f>
+      </c>
+      <c r="H16" s="345">
+        <f>=VALUE(MID(汇总!$C15,FIND("水渣：",汇总!$C15,1)+3,FIND(" ",汇总!$C15,FIND("水渣：",汇总!$C15,1)+3)-(FIND("水渣：",汇总!$C15,1)+3)))</f>
+      </c>
+      <c r="I16" s="346">
+        <f>=VALUE(MID(汇总!$C15,FIND("矿粉：",汇总!$C15,1)+3,FIND(" ",汇总!$C15,FIND("矿粉：",汇总!$C15,1)+3)-(FIND("矿粉：",汇总!$C15,1)+3)))</f>
+      </c>
+      <c r="J16" s="347">
+        <f>=VALUE(MID(汇总!$C15,FIND("其他：",汇总!$C15,1)+3,FIND(" ",汇总!$C15,FIND("其他：",汇总!$C15,1)+3)-(FIND("其他：",汇总!$C15,1)+3)))</f>
+      </c>
+      <c r="K16" s="348">
+        <f>=VALUE(MID(汇总!$C15,FIND("异常：",汇总!$C15,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="349" t="str">
+        <v>2019-07-15</v>
+      </c>
+      <c r="B17" s="350">
+        <f>=VALUE(MID(汇总!$B16,FIND("总车数：",汇总!$B16,1)+4,FIND(" ",汇总!$B16,FIND("总车数：",汇总!$B16,1)+4)-(FIND("总车数：",汇总!$B16,1)+4)))</f>
+      </c>
+      <c r="C17" s="351">
+        <f>=VALUE(MID(汇总!$B16,FIND("水渣：",汇总!$B16,1)+3,FIND(" ",汇总!$B16,FIND("水渣：",汇总!$B16,1)+3)-(FIND("水渣：",汇总!$B16,1)+3)))</f>
+      </c>
+      <c r="D17" s="352">
+        <f>=VALUE(MID(汇总!$B16,FIND("矿粉：",汇总!$B16,1)+3,FIND(" ",汇总!$B16,FIND("矿粉：",汇总!$B16,1)+3)-(FIND("矿粉：",汇总!$B16,1)+3)))</f>
+      </c>
+      <c r="E17" s="353">
+        <f>=VALUE(MID(汇总!$B16,FIND("其他：",汇总!$B16,1)+3,3))</f>
+      </c>
+      <c r="G17" s="354">
+        <f>=VALUE(MID(汇总!$C16,FIND("总车数：",汇总!$C16,1)+4,FIND(" ",汇总!$C16,FIND("总车数：",汇总!$C16,1)+4)-(FIND("总车数：",汇总!$C16,1)+4)))</f>
+      </c>
+      <c r="H17" s="355">
+        <f>=VALUE(MID(汇总!$C16,FIND("水渣：",汇总!$C16,1)+3,FIND(" ",汇总!$C16,FIND("水渣：",汇总!$C16,1)+3)-(FIND("水渣：",汇总!$C16,1)+3)))</f>
+      </c>
+      <c r="I17" s="356">
+        <f>=VALUE(MID(汇总!$C16,FIND("矿粉：",汇总!$C16,1)+3,FIND(" ",汇总!$C16,FIND("矿粉：",汇总!$C16,1)+3)-(FIND("矿粉：",汇总!$C16,1)+3)))</f>
+      </c>
+      <c r="J17" s="357">
+        <f>=VALUE(MID(汇总!$C16,FIND("其他：",汇总!$C16,1)+3,FIND(" ",汇总!$C16,FIND("其他：",汇总!$C16,1)+3)-(FIND("其他：",汇总!$C16,1)+3)))</f>
+      </c>
+      <c r="K17" s="358">
+        <f>=VALUE(MID(汇总!$C16,FIND("异常：",汇总!$C16,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="359" t="str">
+        <v>2019-07-16</v>
+      </c>
+      <c r="B18" s="360">
+        <f>=VALUE(MID(汇总!$B17,FIND("总车数：",汇总!$B17,1)+4,FIND(" ",汇总!$B17,FIND("总车数：",汇总!$B17,1)+4)-(FIND("总车数：",汇总!$B17,1)+4)))</f>
+      </c>
+      <c r="C18" s="361">
+        <f>=VALUE(MID(汇总!$B17,FIND("水渣：",汇总!$B17,1)+3,FIND(" ",汇总!$B17,FIND("水渣：",汇总!$B17,1)+3)-(FIND("水渣：",汇总!$B17,1)+3)))</f>
+      </c>
+      <c r="D18" s="362">
+        <f>=VALUE(MID(汇总!$B17,FIND("矿粉：",汇总!$B17,1)+3,FIND(" ",汇总!$B17,FIND("矿粉：",汇总!$B17,1)+3)-(FIND("矿粉：",汇总!$B17,1)+3)))</f>
+      </c>
+      <c r="E18" s="363">
+        <f>=VALUE(MID(汇总!$B17,FIND("其他：",汇总!$B17,1)+3,3))</f>
+      </c>
+      <c r="G18" s="364">
+        <f>=VALUE(MID(汇总!$C17,FIND("总车数：",汇总!$C17,1)+4,FIND(" ",汇总!$C17,FIND("总车数：",汇总!$C17,1)+4)-(FIND("总车数：",汇总!$C17,1)+4)))</f>
+      </c>
+      <c r="H18" s="365">
+        <f>=VALUE(MID(汇总!$C17,FIND("水渣：",汇总!$C17,1)+3,FIND(" ",汇总!$C17,FIND("水渣：",汇总!$C17,1)+3)-(FIND("水渣：",汇总!$C17,1)+3)))</f>
+      </c>
+      <c r="I18" s="366">
+        <f>=VALUE(MID(汇总!$C17,FIND("矿粉：",汇总!$C17,1)+3,FIND(" ",汇总!$C17,FIND("矿粉：",汇总!$C17,1)+3)-(FIND("矿粉：",汇总!$C17,1)+3)))</f>
+      </c>
+      <c r="J18" s="367">
+        <f>=VALUE(MID(汇总!$C17,FIND("其他：",汇总!$C17,1)+3,FIND(" ",汇总!$C17,FIND("其他：",汇总!$C17,1)+3)-(FIND("其他：",汇总!$C17,1)+3)))</f>
+      </c>
+      <c r="K18" s="368">
+        <f>=VALUE(MID(汇总!$C17,FIND("异常：",汇总!$C17,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="369" t="str">
+        <v>2019-07-17</v>
+      </c>
+      <c r="B19" s="370">
+        <f>=VALUE(MID(汇总!$B18,FIND("总车数：",汇总!$B18,1)+4,FIND(" ",汇总!$B18,FIND("总车数：",汇总!$B18,1)+4)-(FIND("总车数：",汇总!$B18,1)+4)))</f>
+      </c>
+      <c r="C19" s="371">
+        <f>=VALUE(MID(汇总!$B18,FIND("水渣：",汇总!$B18,1)+3,FIND(" ",汇总!$B18,FIND("水渣：",汇总!$B18,1)+3)-(FIND("水渣：",汇总!$B18,1)+3)))</f>
+      </c>
+      <c r="D19" s="372">
+        <f>=VALUE(MID(汇总!$B18,FIND("矿粉：",汇总!$B18,1)+3,FIND(" ",汇总!$B18,FIND("矿粉：",汇总!$B18,1)+3)-(FIND("矿粉：",汇总!$B18,1)+3)))</f>
+      </c>
+      <c r="E19" s="373">
+        <f>=VALUE(MID(汇总!$B18,FIND("其他：",汇总!$B18,1)+3,3))</f>
+      </c>
+      <c r="G19" s="374">
+        <f>=VALUE(MID(汇总!$C18,FIND("总车数：",汇总!$C18,1)+4,FIND(" ",汇总!$C18,FIND("总车数：",汇总!$C18,1)+4)-(FIND("总车数：",汇总!$C18,1)+4)))</f>
+      </c>
+      <c r="H19" s="375">
+        <f>=VALUE(MID(汇总!$C18,FIND("水渣：",汇总!$C18,1)+3,FIND(" ",汇总!$C18,FIND("水渣：",汇总!$C18,1)+3)-(FIND("水渣：",汇总!$C18,1)+3)))</f>
+      </c>
+      <c r="I19" s="376">
+        <f>=VALUE(MID(汇总!$C18,FIND("矿粉：",汇总!$C18,1)+3,FIND(" ",汇总!$C18,FIND("矿粉：",汇总!$C18,1)+3)-(FIND("矿粉：",汇总!$C18,1)+3)))</f>
+      </c>
+      <c r="J19" s="377">
+        <f>=VALUE(MID(汇总!$C18,FIND("其他：",汇总!$C18,1)+3,FIND(" ",汇总!$C18,FIND("其他：",汇总!$C18,1)+3)-(FIND("其他：",汇总!$C18,1)+3)))</f>
+      </c>
+      <c r="K19" s="378">
+        <f>=VALUE(MID(汇总!$C18,FIND("异常：",汇总!$C18,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="379" t="str">
+        <v>2019-07-18</v>
+      </c>
+      <c r="B20" s="380">
+        <f>=VALUE(MID(汇总!$B19,FIND("总车数：",汇总!$B19,1)+4,FIND(" ",汇总!$B19,FIND("总车数：",汇总!$B19,1)+4)-(FIND("总车数：",汇总!$B19,1)+4)))</f>
+      </c>
+      <c r="C20" s="381">
+        <f>=VALUE(MID(汇总!$B19,FIND("水渣：",汇总!$B19,1)+3,FIND(" ",汇总!$B19,FIND("水渣：",汇总!$B19,1)+3)-(FIND("水渣：",汇总!$B19,1)+3)))</f>
+      </c>
+      <c r="D20" s="382">
+        <f>=VALUE(MID(汇总!$B19,FIND("矿粉：",汇总!$B19,1)+3,FIND(" ",汇总!$B19,FIND("矿粉：",汇总!$B19,1)+3)-(FIND("矿粉：",汇总!$B19,1)+3)))</f>
+      </c>
+      <c r="E20" s="383">
+        <f>=VALUE(MID(汇总!$B19,FIND("其他：",汇总!$B19,1)+3,3))</f>
+      </c>
+      <c r="G20" s="384">
+        <f>=VALUE(MID(汇总!$C19,FIND("总车数：",汇总!$C19,1)+4,FIND(" ",汇总!$C19,FIND("总车数：",汇总!$C19,1)+4)-(FIND("总车数：",汇总!$C19,1)+4)))</f>
+      </c>
+      <c r="H20" s="385">
+        <f>=VALUE(MID(汇总!$C19,FIND("水渣：",汇总!$C19,1)+3,FIND(" ",汇总!$C19,FIND("水渣：",汇总!$C19,1)+3)-(FIND("水渣：",汇总!$C19,1)+3)))</f>
+      </c>
+      <c r="I20" s="386">
+        <f>=VALUE(MID(汇总!$C19,FIND("矿粉：",汇总!$C19,1)+3,FIND(" ",汇总!$C19,FIND("矿粉：",汇总!$C19,1)+3)-(FIND("矿粉：",汇总!$C19,1)+3)))</f>
+      </c>
+      <c r="J20" s="387">
+        <f>=VALUE(MID(汇总!$C19,FIND("其他：",汇总!$C19,1)+3,FIND(" ",汇总!$C19,FIND("其他：",汇总!$C19,1)+3)-(FIND("其他：",汇总!$C19,1)+3)))</f>
+      </c>
+      <c r="K20" s="388">
+        <f>=VALUE(MID(汇总!$C19,FIND("异常：",汇总!$C19,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="389" t="str">
+        <v>2019-07-19</v>
+      </c>
+      <c r="B21" s="390">
+        <f>=VALUE(MID(汇总!$B20,FIND("总车数：",汇总!$B20,1)+4,FIND(" ",汇总!$B20,FIND("总车数：",汇总!$B20,1)+4)-(FIND("总车数：",汇总!$B20,1)+4)))</f>
+      </c>
+      <c r="C21" s="391">
+        <f>=VALUE(MID(汇总!$B20,FIND("水渣：",汇总!$B20,1)+3,FIND(" ",汇总!$B20,FIND("水渣：",汇总!$B20,1)+3)-(FIND("水渣：",汇总!$B20,1)+3)))</f>
+      </c>
+      <c r="D21" s="392">
+        <f>=VALUE(MID(汇总!$B20,FIND("矿粉：",汇总!$B20,1)+3,FIND(" ",汇总!$B20,FIND("矿粉：",汇总!$B20,1)+3)-(FIND("矿粉：",汇总!$B20,1)+3)))</f>
+      </c>
+      <c r="E21" s="393">
+        <f>=VALUE(MID(汇总!$B20,FIND("其他：",汇总!$B20,1)+3,3))</f>
+      </c>
+      <c r="G21" s="394">
+        <f>=VALUE(MID(汇总!$C20,FIND("总车数：",汇总!$C20,1)+4,FIND(" ",汇总!$C20,FIND("总车数：",汇总!$C20,1)+4)-(FIND("总车数：",汇总!$C20,1)+4)))</f>
+      </c>
+      <c r="H21" s="395">
+        <f>=VALUE(MID(汇总!$C20,FIND("水渣：",汇总!$C20,1)+3,FIND(" ",汇总!$C20,FIND("水渣：",汇总!$C20,1)+3)-(FIND("水渣：",汇总!$C20,1)+3)))</f>
+      </c>
+      <c r="I21" s="396">
+        <f>=VALUE(MID(汇总!$C20,FIND("矿粉：",汇总!$C20,1)+3,FIND(" ",汇总!$C20,FIND("矿粉：",汇总!$C20,1)+3)-(FIND("矿粉：",汇总!$C20,1)+3)))</f>
+      </c>
+      <c r="J21" s="397">
+        <f>=VALUE(MID(汇总!$C20,FIND("其他：",汇总!$C20,1)+3,FIND(" ",汇总!$C20,FIND("其他：",汇总!$C20,1)+3)-(FIND("其他：",汇总!$C20,1)+3)))</f>
+      </c>
+      <c r="K21" s="398">
+        <f>=VALUE(MID(汇总!$C20,FIND("异常：",汇总!$C20,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="399" t="str">
+        <v>2019-07-20</v>
+      </c>
+      <c r="B22" s="400">
+        <f>=VALUE(MID(汇总!$B21,FIND("总车数：",汇总!$B21,1)+4,FIND(" ",汇总!$B21,FIND("总车数：",汇总!$B21,1)+4)-(FIND("总车数：",汇总!$B21,1)+4)))</f>
+      </c>
+      <c r="C22" s="401">
+        <f>=VALUE(MID(汇总!$B21,FIND("水渣：",汇总!$B21,1)+3,FIND(" ",汇总!$B21,FIND("水渣：",汇总!$B21,1)+3)-(FIND("水渣：",汇总!$B21,1)+3)))</f>
+      </c>
+      <c r="D22" s="402">
+        <f>=VALUE(MID(汇总!$B21,FIND("矿粉：",汇总!$B21,1)+3,FIND(" ",汇总!$B21,FIND("矿粉：",汇总!$B21,1)+3)-(FIND("矿粉：",汇总!$B21,1)+3)))</f>
+      </c>
+      <c r="E22" s="403">
+        <f>=VALUE(MID(汇总!$B21,FIND("其他：",汇总!$B21,1)+3,3))</f>
+      </c>
+      <c r="G22" s="404">
+        <f>=VALUE(MID(汇总!$C21,FIND("总车数：",汇总!$C21,1)+4,FIND(" ",汇总!$C21,FIND("总车数：",汇总!$C21,1)+4)-(FIND("总车数：",汇总!$C21,1)+4)))</f>
+      </c>
+      <c r="H22" s="405">
+        <f>=VALUE(MID(汇总!$C21,FIND("水渣：",汇总!$C21,1)+3,FIND(" ",汇总!$C21,FIND("水渣：",汇总!$C21,1)+3)-(FIND("水渣：",汇总!$C21,1)+3)))</f>
+      </c>
+      <c r="I22" s="406">
+        <f>=VALUE(MID(汇总!$C21,FIND("矿粉：",汇总!$C21,1)+3,FIND(" ",汇总!$C21,FIND("矿粉：",汇总!$C21,1)+3)-(FIND("矿粉：",汇总!$C21,1)+3)))</f>
+      </c>
+      <c r="J22" s="407">
+        <f>=VALUE(MID(汇总!$C21,FIND("其他：",汇总!$C21,1)+3,FIND(" ",汇总!$C21,FIND("其他：",汇总!$C21,1)+3)-(FIND("其他：",汇总!$C21,1)+3)))</f>
+      </c>
+      <c r="K22" s="408">
+        <f>=VALUE(MID(汇总!$C21,FIND("异常：",汇总!$C21,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="409" t="str">
+        <v>2019-07-21</v>
+      </c>
+      <c r="B23" s="410">
+        <f>=VALUE(MID(汇总!$B22,FIND("总车数：",汇总!$B22,1)+4,FIND(" ",汇总!$B22,FIND("总车数：",汇总!$B22,1)+4)-(FIND("总车数：",汇总!$B22,1)+4)))</f>
+      </c>
+      <c r="C23" s="411">
+        <f>=VALUE(MID(汇总!$B22,FIND("水渣：",汇总!$B22,1)+3,FIND(" ",汇总!$B22,FIND("水渣：",汇总!$B22,1)+3)-(FIND("水渣：",汇总!$B22,1)+3)))</f>
+      </c>
+      <c r="D23" s="412">
+        <f>=VALUE(MID(汇总!$B22,FIND("矿粉：",汇总!$B22,1)+3,FIND(" ",汇总!$B22,FIND("矿粉：",汇总!$B22,1)+3)-(FIND("矿粉：",汇总!$B22,1)+3)))</f>
+      </c>
+      <c r="E23" s="413">
+        <f>=VALUE(MID(汇总!$B22,FIND("其他：",汇总!$B22,1)+3,3))</f>
+      </c>
+      <c r="G23" s="414">
+        <f>=VALUE(MID(汇总!$C22,FIND("总车数：",汇总!$C22,1)+4,FIND(" ",汇总!$C22,FIND("总车数：",汇总!$C22,1)+4)-(FIND("总车数：",汇总!$C22,1)+4)))</f>
+      </c>
+      <c r="H23" s="415">
+        <f>=VALUE(MID(汇总!$C22,FIND("水渣：",汇总!$C22,1)+3,FIND(" ",汇总!$C22,FIND("水渣：",汇总!$C22,1)+3)-(FIND("水渣：",汇总!$C22,1)+3)))</f>
+      </c>
+      <c r="I23" s="416">
+        <f>=VALUE(MID(汇总!$C22,FIND("矿粉：",汇总!$C22,1)+3,FIND(" ",汇总!$C22,FIND("矿粉：",汇总!$C22,1)+3)-(FIND("矿粉：",汇总!$C22,1)+3)))</f>
+      </c>
+      <c r="J23" s="417">
+        <f>=VALUE(MID(汇总!$C22,FIND("其他：",汇总!$C22,1)+3,FIND(" ",汇总!$C22,FIND("其他：",汇总!$C22,1)+3)-(FIND("其他：",汇总!$C22,1)+3)))</f>
+      </c>
+      <c r="K23" s="418">
+        <f>=VALUE(MID(汇总!$C22,FIND("异常：",汇总!$C22,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="419" t="str">
+        <v>2019-07-22</v>
+      </c>
+      <c r="B24" s="420">
+        <f>=VALUE(MID(汇总!$B23,FIND("总车数：",汇总!$B23,1)+4,FIND(" ",汇总!$B23,FIND("总车数：",汇总!$B23,1)+4)-(FIND("总车数：",汇总!$B23,1)+4)))</f>
+      </c>
+      <c r="C24" s="421">
+        <f>=VALUE(MID(汇总!$B23,FIND("水渣：",汇总!$B23,1)+3,FIND(" ",汇总!$B23,FIND("水渣：",汇总!$B23,1)+3)-(FIND("水渣：",汇总!$B23,1)+3)))</f>
+      </c>
+      <c r="D24" s="422">
+        <f>=VALUE(MID(汇总!$B23,FIND("矿粉：",汇总!$B23,1)+3,FIND(" ",汇总!$B23,FIND("矿粉：",汇总!$B23,1)+3)-(FIND("矿粉：",汇总!$B23,1)+3)))</f>
+      </c>
+      <c r="E24" s="423">
+        <f>=VALUE(MID(汇总!$B23,FIND("其他：",汇总!$B23,1)+3,3))</f>
+      </c>
+      <c r="G24" s="424">
+        <f>=VALUE(MID(汇总!$C23,FIND("总车数：",汇总!$C23,1)+4,FIND(" ",汇总!$C23,FIND("总车数：",汇总!$C23,1)+4)-(FIND("总车数：",汇总!$C23,1)+4)))</f>
+      </c>
+      <c r="H24" s="425">
+        <f>=VALUE(MID(汇总!$C23,FIND("水渣：",汇总!$C23,1)+3,FIND(" ",汇总!$C23,FIND("水渣：",汇总!$C23,1)+3)-(FIND("水渣：",汇总!$C23,1)+3)))</f>
+      </c>
+      <c r="I24" s="426">
+        <f>=VALUE(MID(汇总!$C23,FIND("矿粉：",汇总!$C23,1)+3,FIND(" ",汇总!$C23,FIND("矿粉：",汇总!$C23,1)+3)-(FIND("矿粉：",汇总!$C23,1)+3)))</f>
+      </c>
+      <c r="J24" s="427">
+        <f>=VALUE(MID(汇总!$C23,FIND("其他：",汇总!$C23,1)+3,FIND(" ",汇总!$C23,FIND("其他：",汇总!$C23,1)+3)-(FIND("其他：",汇总!$C23,1)+3)))</f>
+      </c>
+      <c r="K24" s="428">
+        <f>=VALUE(MID(汇总!$C23,FIND("异常：",汇总!$C23,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="429" t="str">
+        <v>2019-07-23</v>
+      </c>
+      <c r="B25" s="430">
+        <f>=VALUE(MID(汇总!$B24,FIND("总车数：",汇总!$B24,1)+4,FIND(" ",汇总!$B24,FIND("总车数：",汇总!$B24,1)+4)-(FIND("总车数：",汇总!$B24,1)+4)))</f>
+      </c>
+      <c r="C25" s="431">
+        <f>=VALUE(MID(汇总!$B24,FIND("水渣：",汇总!$B24,1)+3,FIND(" ",汇总!$B24,FIND("水渣：",汇总!$B24,1)+3)-(FIND("水渣：",汇总!$B24,1)+3)))</f>
+      </c>
+      <c r="D25" s="432">
+        <f>=VALUE(MID(汇总!$B24,FIND("矿粉：",汇总!$B24,1)+3,FIND(" ",汇总!$B24,FIND("矿粉：",汇总!$B24,1)+3)-(FIND("矿粉：",汇总!$B24,1)+3)))</f>
+      </c>
+      <c r="E25" s="433">
+        <f>=VALUE(MID(汇总!$B24,FIND("其他：",汇总!$B24,1)+3,3))</f>
+      </c>
+      <c r="G25" s="434">
+        <f>=VALUE(MID(汇总!$C24,FIND("总车数：",汇总!$C24,1)+4,FIND(" ",汇总!$C24,FIND("总车数：",汇总!$C24,1)+4)-(FIND("总车数：",汇总!$C24,1)+4)))</f>
+      </c>
+      <c r="H25" s="435">
+        <f>=VALUE(MID(汇总!$C24,FIND("水渣：",汇总!$C24,1)+3,FIND(" ",汇总!$C24,FIND("水渣：",汇总!$C24,1)+3)-(FIND("水渣：",汇总!$C24,1)+3)))</f>
+      </c>
+      <c r="I25" s="436">
+        <f>=VALUE(MID(汇总!$C24,FIND("矿粉：",汇总!$C24,1)+3,FIND(" ",汇总!$C24,FIND("矿粉：",汇总!$C24,1)+3)-(FIND("矿粉：",汇总!$C24,1)+3)))</f>
+      </c>
+      <c r="J25" s="437">
+        <f>=VALUE(MID(汇总!$C24,FIND("其他：",汇总!$C24,1)+3,FIND(" ",汇总!$C24,FIND("其他：",汇总!$C24,1)+3)-(FIND("其他：",汇总!$C24,1)+3)))</f>
+      </c>
+      <c r="K25" s="438">
+        <f>=VALUE(MID(汇总!$C24,FIND("异常：",汇总!$C24,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="439" t="str">
+        <v>2019-07-24</v>
+      </c>
+      <c r="B26" s="440">
+        <f>=VALUE(MID(汇总!$B25,FIND("总车数：",汇总!$B25,1)+4,FIND(" ",汇总!$B25,FIND("总车数：",汇总!$B25,1)+4)-(FIND("总车数：",汇总!$B25,1)+4)))</f>
+      </c>
+      <c r="C26" s="441">
+        <f>=VALUE(MID(汇总!$B25,FIND("水渣：",汇总!$B25,1)+3,FIND(" ",汇总!$B25,FIND("水渣：",汇总!$B25,1)+3)-(FIND("水渣：",汇总!$B25,1)+3)))</f>
+      </c>
+      <c r="D26" s="442">
+        <f>=VALUE(MID(汇总!$B25,FIND("矿粉：",汇总!$B25,1)+3,FIND(" ",汇总!$B25,FIND("矿粉：",汇总!$B25,1)+3)-(FIND("矿粉：",汇总!$B25,1)+3)))</f>
+      </c>
+      <c r="E26" s="443">
+        <f>=VALUE(MID(汇总!$B25,FIND("其他：",汇总!$B25,1)+3,3))</f>
+      </c>
+      <c r="G26" s="444">
+        <f>=VALUE(MID(汇总!$C25,FIND("总车数：",汇总!$C25,1)+4,FIND(" ",汇总!$C25,FIND("总车数：",汇总!$C25,1)+4)-(FIND("总车数：",汇总!$C25,1)+4)))</f>
+      </c>
+      <c r="H26" s="445">
+        <f>=VALUE(MID(汇总!$C25,FIND("水渣：",汇总!$C25,1)+3,FIND(" ",汇总!$C25,FIND("水渣：",汇总!$C25,1)+3)-(FIND("水渣：",汇总!$C25,1)+3)))</f>
+      </c>
+      <c r="I26" s="446">
+        <f>=VALUE(MID(汇总!$C25,FIND("矿粉：",汇总!$C25,1)+3,FIND(" ",汇总!$C25,FIND("矿粉：",汇总!$C25,1)+3)-(FIND("矿粉：",汇总!$C25,1)+3)))</f>
+      </c>
+      <c r="J26" s="447">
+        <f>=VALUE(MID(汇总!$C25,FIND("其他：",汇总!$C25,1)+3,FIND(" ",汇总!$C25,FIND("其他：",汇总!$C25,1)+3)-(FIND("其他：",汇总!$C25,1)+3)))</f>
+      </c>
+      <c r="K26" s="448">
+        <f>=VALUE(MID(汇总!$C25,FIND("异常：",汇总!$C25,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="449" t="str">
+        <v>2019-07-25</v>
+      </c>
+      <c r="B27" s="450">
+        <f>=VALUE(MID(汇总!$B26,FIND("总车数：",汇总!$B26,1)+4,FIND(" ",汇总!$B26,FIND("总车数：",汇总!$B26,1)+4)-(FIND("总车数：",汇总!$B26,1)+4)))</f>
+      </c>
+      <c r="C27" s="451">
+        <f>=VALUE(MID(汇总!$B26,FIND("水渣：",汇总!$B26,1)+3,FIND(" ",汇总!$B26,FIND("水渣：",汇总!$B26,1)+3)-(FIND("水渣：",汇总!$B26,1)+3)))</f>
+      </c>
+      <c r="D27" s="452">
+        <f>=VALUE(MID(汇总!$B26,FIND("矿粉：",汇总!$B26,1)+3,FIND(" ",汇总!$B26,FIND("矿粉：",汇总!$B26,1)+3)-(FIND("矿粉：",汇总!$B26,1)+3)))</f>
+      </c>
+      <c r="E27" s="453">
+        <f>=VALUE(MID(汇总!$B26,FIND("其他：",汇总!$B26,1)+3,3))</f>
+      </c>
+      <c r="G27" s="454">
+        <f>=VALUE(MID(汇总!$C26,FIND("总车数：",汇总!$C26,1)+4,FIND(" ",汇总!$C26,FIND("总车数：",汇总!$C26,1)+4)-(FIND("总车数：",汇总!$C26,1)+4)))</f>
+      </c>
+      <c r="H27" s="455">
+        <f>=VALUE(MID(汇总!$C26,FIND("水渣：",汇总!$C26,1)+3,FIND(" ",汇总!$C26,FIND("水渣：",汇总!$C26,1)+3)-(FIND("水渣：",汇总!$C26,1)+3)))</f>
+      </c>
+      <c r="I27" s="456">
+        <f>=VALUE(MID(汇总!$C26,FIND("矿粉：",汇总!$C26,1)+3,FIND(" ",汇总!$C26,FIND("矿粉：",汇总!$C26,1)+3)-(FIND("矿粉：",汇总!$C26,1)+3)))</f>
+      </c>
+      <c r="J27" s="457">
+        <f>=VALUE(MID(汇总!$C26,FIND("其他：",汇总!$C26,1)+3,FIND(" ",汇总!$C26,FIND("其他：",汇总!$C26,1)+3)-(FIND("其他：",汇总!$C26,1)+3)))</f>
+      </c>
+      <c r="K27" s="458">
+        <f>=VALUE(MID(汇总!$C26,FIND("异常：",汇总!$C26,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="459" t="str">
+        <v>2019-07-26</v>
+      </c>
+      <c r="B28" s="460">
+        <f>=VALUE(MID(汇总!$B27,FIND("总车数：",汇总!$B27,1)+4,FIND(" ",汇总!$B27,FIND("总车数：",汇总!$B27,1)+4)-(FIND("总车数：",汇总!$B27,1)+4)))</f>
+      </c>
+      <c r="C28" s="461">
+        <f>=VALUE(MID(汇总!$B27,FIND("水渣：",汇总!$B27,1)+3,FIND(" ",汇总!$B27,FIND("水渣：",汇总!$B27,1)+3)-(FIND("水渣：",汇总!$B27,1)+3)))</f>
+      </c>
+      <c r="D28" s="462">
+        <f>=VALUE(MID(汇总!$B27,FIND("矿粉：",汇总!$B27,1)+3,FIND(" ",汇总!$B27,FIND("矿粉：",汇总!$B27,1)+3)-(FIND("矿粉：",汇总!$B27,1)+3)))</f>
+      </c>
+      <c r="E28" s="463">
+        <f>=VALUE(MID(汇总!$B27,FIND("其他：",汇总!$B27,1)+3,3))</f>
+      </c>
+      <c r="G28" s="464">
+        <f>=VALUE(MID(汇总!$C27,FIND("总车数：",汇总!$C27,1)+4,FIND(" ",汇总!$C27,FIND("总车数：",汇总!$C27,1)+4)-(FIND("总车数：",汇总!$C27,1)+4)))</f>
+      </c>
+      <c r="H28" s="465">
+        <f>=VALUE(MID(汇总!$C27,FIND("水渣：",汇总!$C27,1)+3,FIND(" ",汇总!$C27,FIND("水渣：",汇总!$C27,1)+3)-(FIND("水渣：",汇总!$C27,1)+3)))</f>
+      </c>
+      <c r="I28" s="466">
+        <f>=VALUE(MID(汇总!$C27,FIND("矿粉：",汇总!$C27,1)+3,FIND(" ",汇总!$C27,FIND("矿粉：",汇总!$C27,1)+3)-(FIND("矿粉：",汇总!$C27,1)+3)))</f>
+      </c>
+      <c r="J28" s="467">
+        <f>=VALUE(MID(汇总!$C27,FIND("其他：",汇总!$C27,1)+3,FIND(" ",汇总!$C27,FIND("其他：",汇总!$C27,1)+3)-(FIND("其他：",汇总!$C27,1)+3)))</f>
+      </c>
+      <c r="K28" s="468">
+        <f>=VALUE(MID(汇总!$C27,FIND("异常：",汇总!$C27,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="469" t="str">
+        <v>2019-07-27</v>
+      </c>
+      <c r="B29" s="470">
+        <f>=VALUE(MID(汇总!$B28,FIND("总车数：",汇总!$B28,1)+4,FIND(" ",汇总!$B28,FIND("总车数：",汇总!$B28,1)+4)-(FIND("总车数：",汇总!$B28,1)+4)))</f>
+      </c>
+      <c r="C29" s="471">
+        <f>=VALUE(MID(汇总!$B28,FIND("水渣：",汇总!$B28,1)+3,FIND(" ",汇总!$B28,FIND("水渣：",汇总!$B28,1)+3)-(FIND("水渣：",汇总!$B28,1)+3)))</f>
+      </c>
+      <c r="D29" s="472">
+        <f>=VALUE(MID(汇总!$B28,FIND("矿粉：",汇总!$B28,1)+3,FIND(" ",汇总!$B28,FIND("矿粉：",汇总!$B28,1)+3)-(FIND("矿粉：",汇总!$B28,1)+3)))</f>
+      </c>
+      <c r="E29" s="473">
+        <f>=VALUE(MID(汇总!$B28,FIND("其他：",汇总!$B28,1)+3,3))</f>
+      </c>
+      <c r="G29" s="474">
+        <f>=VALUE(MID(汇总!$C28,FIND("总车数：",汇总!$C28,1)+4,FIND(" ",汇总!$C28,FIND("总车数：",汇总!$C28,1)+4)-(FIND("总车数：",汇总!$C28,1)+4)))</f>
+      </c>
+      <c r="H29" s="475">
+        <f>=VALUE(MID(汇总!$C28,FIND("水渣：",汇总!$C28,1)+3,FIND(" ",汇总!$C28,FIND("水渣：",汇总!$C28,1)+3)-(FIND("水渣：",汇总!$C28,1)+3)))</f>
+      </c>
+      <c r="I29" s="476">
+        <f>=VALUE(MID(汇总!$C28,FIND("矿粉：",汇总!$C28,1)+3,FIND(" ",汇总!$C28,FIND("矿粉：",汇总!$C28,1)+3)-(FIND("矿粉：",汇总!$C28,1)+3)))</f>
+      </c>
+      <c r="J29" s="477">
+        <f>=VALUE(MID(汇总!$C28,FIND("其他：",汇总!$C28,1)+3,FIND(" ",汇总!$C28,FIND("其他：",汇总!$C28,1)+3)-(FIND("其他：",汇总!$C28,1)+3)))</f>
+      </c>
+      <c r="K29" s="478">
+        <f>=VALUE(MID(汇总!$C28,FIND("异常：",汇总!$C28,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="479" t="str">
+        <v>2019-07-28</v>
+      </c>
+      <c r="B30" s="480">
+        <f>=VALUE(MID(汇总!$B29,FIND("总车数：",汇总!$B29,1)+4,FIND(" ",汇总!$B29,FIND("总车数：",汇总!$B29,1)+4)-(FIND("总车数：",汇总!$B29,1)+4)))</f>
+      </c>
+      <c r="C30" s="481">
+        <f>=VALUE(MID(汇总!$B29,FIND("水渣：",汇总!$B29,1)+3,FIND(" ",汇总!$B29,FIND("水渣：",汇总!$B29,1)+3)-(FIND("水渣：",汇总!$B29,1)+3)))</f>
+      </c>
+      <c r="D30" s="482">
+        <f>=VALUE(MID(汇总!$B29,FIND("矿粉：",汇总!$B29,1)+3,FIND(" ",汇总!$B29,FIND("矿粉：",汇总!$B29,1)+3)-(FIND("矿粉：",汇总!$B29,1)+3)))</f>
+      </c>
+      <c r="E30" s="483">
+        <f>=VALUE(MID(汇总!$B29,FIND("其他：",汇总!$B29,1)+3,3))</f>
+      </c>
+      <c r="G30" s="484">
+        <f>=VALUE(MID(汇总!$C29,FIND("总车数：",汇总!$C29,1)+4,FIND(" ",汇总!$C29,FIND("总车数：",汇总!$C29,1)+4)-(FIND("总车数：",汇总!$C29,1)+4)))</f>
+      </c>
+      <c r="H30" s="485">
+        <f>=VALUE(MID(汇总!$C29,FIND("水渣：",汇总!$C29,1)+3,FIND(" ",汇总!$C29,FIND("水渣：",汇总!$C29,1)+3)-(FIND("水渣：",汇总!$C29,1)+3)))</f>
+      </c>
+      <c r="I30" s="486">
+        <f>=VALUE(MID(汇总!$C29,FIND("矿粉：",汇总!$C29,1)+3,FIND(" ",汇总!$C29,FIND("矿粉：",汇总!$C29,1)+3)-(FIND("矿粉：",汇总!$C29,1)+3)))</f>
+      </c>
+      <c r="J30" s="487">
+        <f>=VALUE(MID(汇总!$C29,FIND("其他：",汇总!$C29,1)+3,FIND(" ",汇总!$C29,FIND("其他：",汇总!$C29,1)+3)-(FIND("其他：",汇总!$C29,1)+3)))</f>
+      </c>
+      <c r="K30" s="488">
+        <f>=VALUE(MID(汇总!$C29,FIND("异常：",汇总!$C29,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="489" t="str">
+        <v>2019-07-29</v>
+      </c>
+      <c r="B31" s="490">
+        <f>=VALUE(MID(汇总!$B30,FIND("总车数：",汇总!$B30,1)+4,FIND(" ",汇总!$B30,FIND("总车数：",汇总!$B30,1)+4)-(FIND("总车数：",汇总!$B30,1)+4)))</f>
+      </c>
+      <c r="C31" s="491">
+        <f>=VALUE(MID(汇总!$B30,FIND("水渣：",汇总!$B30,1)+3,FIND(" ",汇总!$B30,FIND("水渣：",汇总!$B30,1)+3)-(FIND("水渣：",汇总!$B30,1)+3)))</f>
+      </c>
+      <c r="D31" s="492">
+        <f>=VALUE(MID(汇总!$B30,FIND("矿粉：",汇总!$B30,1)+3,FIND(" ",汇总!$B30,FIND("矿粉：",汇总!$B30,1)+3)-(FIND("矿粉：",汇总!$B30,1)+3)))</f>
+      </c>
+      <c r="E31" s="493">
+        <f>=VALUE(MID(汇总!$B30,FIND("其他：",汇总!$B30,1)+3,3))</f>
+      </c>
+      <c r="G31" s="494">
+        <f>=VALUE(MID(汇总!$C30,FIND("总车数：",汇总!$C30,1)+4,FIND(" ",汇总!$C30,FIND("总车数：",汇总!$C30,1)+4)-(FIND("总车数：",汇总!$C30,1)+4)))</f>
+      </c>
+      <c r="H31" s="495">
+        <f>=VALUE(MID(汇总!$C30,FIND("水渣：",汇总!$C30,1)+3,FIND(" ",汇总!$C30,FIND("水渣：",汇总!$C30,1)+3)-(FIND("水渣：",汇总!$C30,1)+3)))</f>
+      </c>
+      <c r="I31" s="496">
+        <f>=VALUE(MID(汇总!$C30,FIND("矿粉：",汇总!$C30,1)+3,FIND(" ",汇总!$C30,FIND("矿粉：",汇总!$C30,1)+3)-(FIND("矿粉：",汇总!$C30,1)+3)))</f>
+      </c>
+      <c r="J31" s="497">
+        <f>=VALUE(MID(汇总!$C30,FIND("其他：",汇总!$C30,1)+3,FIND(" ",汇总!$C30,FIND("其他：",汇总!$C30,1)+3)-(FIND("其他：",汇总!$C30,1)+3)))</f>
+      </c>
+      <c r="K31" s="498">
+        <f>=VALUE(MID(汇总!$C30,FIND("异常：",汇总!$C30,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="499" t="str">
+        <v>2019-07-30</v>
+      </c>
+      <c r="B32" s="500">
+        <f>=VALUE(MID(汇总!$B31,FIND("总车数：",汇总!$B31,1)+4,FIND(" ",汇总!$B31,FIND("总车数：",汇总!$B31,1)+4)-(FIND("总车数：",汇总!$B31,1)+4)))</f>
+      </c>
+      <c r="C32" s="501">
+        <f>=VALUE(MID(汇总!$B31,FIND("水渣：",汇总!$B31,1)+3,FIND(" ",汇总!$B31,FIND("水渣：",汇总!$B31,1)+3)-(FIND("水渣：",汇总!$B31,1)+3)))</f>
+      </c>
+      <c r="D32" s="502">
+        <f>=VALUE(MID(汇总!$B31,FIND("矿粉：",汇总!$B31,1)+3,FIND(" ",汇总!$B31,FIND("矿粉：",汇总!$B31,1)+3)-(FIND("矿粉：",汇总!$B31,1)+3)))</f>
+      </c>
+      <c r="E32" s="503">
+        <f>=VALUE(MID(汇总!$B31,FIND("其他：",汇总!$B31,1)+3,3))</f>
+      </c>
+      <c r="G32" s="504">
+        <f>=VALUE(MID(汇总!$C31,FIND("总车数：",汇总!$C31,1)+4,FIND(" ",汇总!$C31,FIND("总车数：",汇总!$C31,1)+4)-(FIND("总车数：",汇总!$C31,1)+4)))</f>
+      </c>
+      <c r="H32" s="505">
+        <f>=VALUE(MID(汇总!$C31,FIND("水渣：",汇总!$C31,1)+3,FIND(" ",汇总!$C31,FIND("水渣：",汇总!$C31,1)+3)-(FIND("水渣：",汇总!$C31,1)+3)))</f>
+      </c>
+      <c r="I32" s="506">
+        <f>=VALUE(MID(汇总!$C31,FIND("矿粉：",汇总!$C31,1)+3,FIND(" ",汇总!$C31,FIND("矿粉：",汇总!$C31,1)+3)-(FIND("矿粉：",汇总!$C31,1)+3)))</f>
+      </c>
+      <c r="J32" s="507">
+        <f>=VALUE(MID(汇总!$C31,FIND("其他：",汇总!$C31,1)+3,FIND(" ",汇总!$C31,FIND("其他：",汇总!$C31,1)+3)-(FIND("其他：",汇总!$C31,1)+3)))</f>
+      </c>
+      <c r="K32" s="508">
+        <f>=VALUE(MID(汇总!$C31,FIND("异常：",汇总!$C31,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="509" t="str">
+        <v>2019-07-31</v>
+      </c>
+      <c r="B33" s="510">
+        <f>=VALUE(MID(汇总!$B32,FIND("总车数：",汇总!$B32,1)+4,FIND(" ",汇总!$B32,FIND("总车数：",汇总!$B32,1)+4)-(FIND("总车数：",汇总!$B32,1)+4)))</f>
+      </c>
+      <c r="C33" s="511">
+        <f>=VALUE(MID(汇总!$B32,FIND("水渣：",汇总!$B32,1)+3,FIND(" ",汇总!$B32,FIND("水渣：",汇总!$B32,1)+3)-(FIND("水渣：",汇总!$B32,1)+3)))</f>
+      </c>
+      <c r="D33" s="512">
+        <f>=VALUE(MID(汇总!$B32,FIND("矿粉：",汇总!$B32,1)+3,FIND(" ",汇总!$B32,FIND("矿粉：",汇总!$B32,1)+3)-(FIND("矿粉：",汇总!$B32,1)+3)))</f>
+      </c>
+      <c r="E33" s="513">
+        <f>=VALUE(MID(汇总!$B32,FIND("其他：",汇总!$B32,1)+3,3))</f>
+      </c>
+      <c r="G33" s="514">
+        <f>=VALUE(MID(汇总!$C32,FIND("总车数：",汇总!$C32,1)+4,FIND(" ",汇总!$C32,FIND("总车数：",汇总!$C32,1)+4)-(FIND("总车数：",汇总!$C32,1)+4)))</f>
+      </c>
+      <c r="H33" s="515">
+        <f>=VALUE(MID(汇总!$C32,FIND("水渣：",汇总!$C32,1)+3,FIND(" ",汇总!$C32,FIND("水渣：",汇总!$C32,1)+3)-(FIND("水渣：",汇总!$C32,1)+3)))</f>
+      </c>
+      <c r="I33" s="516">
+        <f>=VALUE(MID(汇总!$C32,FIND("矿粉：",汇总!$C32,1)+3,FIND(" ",汇总!$C32,FIND("矿粉：",汇总!$C32,1)+3)-(FIND("矿粉：",汇总!$C32,1)+3)))</f>
+      </c>
+      <c r="J33" s="517">
+        <f>=VALUE(MID(汇总!$C32,FIND("其他：",汇总!$C32,1)+3,FIND(" ",汇总!$C32,FIND("其他：",汇总!$C32,1)+3)-(FIND("其他：",汇总!$C32,1)+3)))</f>
+      </c>
+      <c r="K33" s="518">
+        <f>=VALUE(MID(汇总!$C32,FIND("异常：",汇总!$C32,1)+3,3))</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="519" t="str">
+        <v>汇总</v>
+      </c>
+      <c r="B34" s="520">
+        <f>=SUM(B3:B33)</f>
+      </c>
+      <c r="C34" s="521">
+        <f>=SUM(C3:C33)</f>
+      </c>
+      <c r="D34" s="522">
+        <f>=SUM(D3:D33)</f>
+      </c>
+      <c r="E34" s="523">
+        <f>=SUM(E3:E33)</f>
+      </c>
+      <c r="G34" s="524">
+        <f>=SUM(G3:G33)</f>
+      </c>
+      <c r="H34" s="525">
+        <f>=SUM(H3:H33)</f>
+      </c>
+      <c r="I34" s="526">
+        <f>=SUM(I3:I33)</f>
+      </c>
+      <c r="J34" s="527">
+        <f>=SUM(J3:J33)</f>
+      </c>
+      <c r="K34" s="528">
+        <f>=SUM(K3:K33)</f>
       </c>
     </row>
   </sheetData>

--- a/excel/files/ttt.xlsx
+++ b/excel/files/ttt.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId4"/>
     <sheet name="tmp" sheetId="3" r:id="rId5"/>
+    <sheet name="地泵汇总" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,7 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="83">
+  <fonts count="85">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +588,20 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b>true</b>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -602,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="529">
+  <borders count="593">
     <border>
       <left/>
       <right/>
@@ -8530,11 +8545,971 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="529">
+  <cellXfs count="593">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -9112,11 +10087,11 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="192" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="193" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="194" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -10119,6 +11094,198 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="529" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="530" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="531" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="532" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="536" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="538" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="539" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="540" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="543" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="546" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="547" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="548" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="552" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="554" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="555" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="575" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="576" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="578" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="580" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="583" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="584" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="586" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="587" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="588" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="590" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="591" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="592" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10389,34 +11556,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col customWidth="true" max="6" min="6" width="16"/>
     <col customWidth="true" max="5" min="5" width="16"/>
     <col customWidth="true" max="4" min="4" width="36"/>
     <col customWidth="true" max="3" min="3" width="48"/>
     <col customWidth="true" max="2" min="2" width="40"/>
     <col customWidth="true" max="1" min="1" width="16"/>
+    <col customWidth="true" max="6" min="6" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>日期</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="3" t="str">
         <v>地泵数据</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="4" t="str">
         <v>录像数据</v>
       </c>
-      <c r="D1" s="4" t="str">
+      <c r="D1" s="5" t="str">
         <v>比对结果</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="6" t="str">
         <v>地泵明细</v>
       </c>
-      <c r="F1" s="6" t="str">
+      <c r="F1" s="1" t="str">
         <v>录像明细</v>
       </c>
     </row>
@@ -10425,7 +11592,7 @@
         <v>2019-07-01</v>
       </c>
       <c r="B2" s="8">
-        <f>='..\data\2019\07\[2019-07-01.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-01.xls]称重记录'!$L$5</f>
       </c>
       <c r="C2" s="9">
         <f>='..\video_data\2019\07\[2019-07-01.xlsx]data'!$E$11</f>
@@ -10443,7 +11610,7 @@
         <v>2019-07-02</v>
       </c>
       <c r="B3" s="14">
-        <f>='..\data\2019\07\[2019-07-02.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-02.xls]称重记录'!$L$5</f>
       </c>
       <c r="C3" s="15">
         <f>='..\video_data\2019\07\[2019-07-02.xlsx]data'!$E$11</f>
@@ -10461,7 +11628,7 @@
         <v>2019-07-03</v>
       </c>
       <c r="B4" s="20">
-        <f>='..\data\2019\07\[2019-07-03.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-03.xls]称重记录'!$L$5</f>
       </c>
       <c r="C4" s="21">
         <f>='..\video_data\2019\07\[2019-07-03.xlsx]data'!$E$11</f>
@@ -10479,7 +11646,7 @@
         <v>2019-07-04</v>
       </c>
       <c r="B5" s="26">
-        <f>='..\data\2019\07\[2019-07-04.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-04.xls]称重记录'!$L$5</f>
       </c>
       <c r="C5" s="27">
         <f>='..\video_data\2019\07\[2019-07-04.xlsx]data'!$E$11</f>
@@ -10497,7 +11664,7 @@
         <v>2019-07-05</v>
       </c>
       <c r="B6" s="32">
-        <f>='..\data\2019\07\[2019-07-05.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-05.xls]称重记录'!$L$5</f>
       </c>
       <c r="C6" s="33">
         <f>='..\video_data\2019\07\[2019-07-05.xlsx]data'!$E$11</f>
@@ -10515,7 +11682,7 @@
         <v>2019-07-06</v>
       </c>
       <c r="B7" s="38">
-        <f>='..\data\2019\07\[2019-07-06.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-06.xls]称重记录'!$L$5</f>
       </c>
       <c r="C7" s="39">
         <f>='..\video_data\2019\07\[2019-07-06.xlsx]data'!$E$11</f>
@@ -10533,7 +11700,7 @@
         <v>2019-07-07</v>
       </c>
       <c r="B8" s="44">
-        <f>='..\data\2019\07\[2019-07-07.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-07.xls]称重记录'!$L$5</f>
       </c>
       <c r="C8" s="45">
         <f>='..\video_data\2019\07\[2019-07-07.xlsx]data'!$E$11</f>
@@ -10551,7 +11718,7 @@
         <v>2019-07-08</v>
       </c>
       <c r="B9" s="50">
-        <f>='..\data\2019\07\[2019-07-08.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-08.xls]称重记录'!$L$5</f>
       </c>
       <c r="C9" s="51">
         <f>='..\video_data\2019\07\[2019-07-08.xlsx]data'!$E$11</f>
@@ -10569,7 +11736,7 @@
         <v>2019-07-09</v>
       </c>
       <c r="B10" s="56">
-        <f>='..\data\2019\07\[2019-07-09.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-09.xls]称重记录'!$L$5</f>
       </c>
       <c r="C10" s="57">
         <f>='..\video_data\2019\07\[2019-07-09.xlsx]data'!$E$11</f>
@@ -10587,7 +11754,7 @@
         <v>2019-07-10</v>
       </c>
       <c r="B11" s="62">
-        <f>='..\data\2019\07\[2019-07-10.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-10.xls]称重记录'!$L$5</f>
       </c>
       <c r="C11" s="63">
         <f>='..\video_data\2019\07\[2019-07-10.xlsx]data'!$E$11</f>
@@ -10605,7 +11772,7 @@
         <v>2019-07-11</v>
       </c>
       <c r="B12" s="68">
-        <f>='..\data\2019\07\[2019-07-11.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-11.xls]称重记录'!$L$5</f>
       </c>
       <c r="C12" s="69">
         <f>='..\video_data\2019\07\[2019-07-11.xlsx]data'!$E$11</f>
@@ -10623,7 +11790,7 @@
         <v>2019-07-12</v>
       </c>
       <c r="B13" s="74">
-        <f>='..\data\2019\07\[2019-07-12.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-12.xls]称重记录'!$L$5</f>
       </c>
       <c r="C13" s="75">
         <f>='..\video_data\2019\07\[2019-07-12.xlsx]data'!$E$11</f>
@@ -10641,7 +11808,7 @@
         <v>2019-07-13</v>
       </c>
       <c r="B14" s="80">
-        <f>='..\data\2019\07\[2019-07-13.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-13.xls]称重记录'!$L$5</f>
       </c>
       <c r="C14" s="81">
         <f>='..\video_data\2019\07\[2019-07-13.xlsx]data'!$E$11</f>
@@ -10659,7 +11826,7 @@
         <v>2019-07-14</v>
       </c>
       <c r="B15" s="86">
-        <f>='..\data\2019\07\[2019-07-14.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-14.xls]称重记录'!$L$5</f>
       </c>
       <c r="C15" s="87">
         <f>='..\video_data\2019\07\[2019-07-14.xlsx]data'!$E$11</f>
@@ -10677,7 +11844,7 @@
         <v>2019-07-15</v>
       </c>
       <c r="B16" s="92">
-        <f>='..\data\2019\07\[2019-07-15.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-15.xls]称重记录'!$L$5</f>
       </c>
       <c r="C16" s="93">
         <f>='..\video_data\2019\07\[2019-07-15.xlsx]data'!$E$11</f>
@@ -10695,7 +11862,7 @@
         <v>2019-07-16</v>
       </c>
       <c r="B17" s="98">
-        <f>='..\data\2019\07\[2019-07-16.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-16.xls]称重记录'!$L$5</f>
       </c>
       <c r="C17" s="99">
         <f>='..\video_data\2019\07\[2019-07-16.xlsx]data'!$E$11</f>
@@ -10713,7 +11880,7 @@
         <v>2019-07-17</v>
       </c>
       <c r="B18" s="104">
-        <f>='..\data\2019\07\[2019-07-17.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-17.xls]称重记录'!$L$5</f>
       </c>
       <c r="C18" s="105">
         <f>='..\video_data\2019\07\[2019-07-17.xlsx]data'!$E$11</f>
@@ -10731,7 +11898,7 @@
         <v>2019-07-18</v>
       </c>
       <c r="B19" s="110">
-        <f>='..\data\2019\07\[2019-07-18.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-18.xls]称重记录'!$L$5</f>
       </c>
       <c r="C19" s="111">
         <f>='..\video_data\2019\07\[2019-07-18.xlsx]data'!$E$11</f>
@@ -10749,7 +11916,7 @@
         <v>2019-07-19</v>
       </c>
       <c r="B20" s="116">
-        <f>='..\data\2019\07\[2019-07-19.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-19.xls]称重记录'!$L$5</f>
       </c>
       <c r="C20" s="117">
         <f>='..\video_data\2019\07\[2019-07-19.xlsx]data'!$E$11</f>
@@ -10767,7 +11934,7 @@
         <v>2019-07-20</v>
       </c>
       <c r="B21" s="122">
-        <f>='..\data\2019\07\[2019-07-20.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-20.xls]称重记录'!$L$5</f>
       </c>
       <c r="C21" s="123">
         <f>='..\video_data\2019\07\[2019-07-20.xlsx]data'!$E$11</f>
@@ -10785,7 +11952,7 @@
         <v>2019-07-21</v>
       </c>
       <c r="B22" s="128">
-        <f>='..\data\2019\07\[2019-07-21.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-21.xls]称重记录'!$L$5</f>
       </c>
       <c r="C22" s="129">
         <f>='..\video_data\2019\07\[2019-07-21.xlsx]data'!$E$11</f>
@@ -10803,7 +11970,7 @@
         <v>2019-07-22</v>
       </c>
       <c r="B23" s="134">
-        <f>='..\data\2019\07\[2019-07-22.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-22.xls]称重记录'!$L$5</f>
       </c>
       <c r="C23" s="135">
         <f>='..\video_data\2019\07\[2019-07-22.xlsx]data'!$E$11</f>
@@ -10821,7 +11988,7 @@
         <v>2019-07-23</v>
       </c>
       <c r="B24" s="140">
-        <f>='..\data\2019\07\[2019-07-23.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-23.xls]称重记录'!$L$5</f>
       </c>
       <c r="C24" s="141">
         <f>='..\video_data\2019\07\[2019-07-23.xlsx]data'!$E$11</f>
@@ -10839,7 +12006,7 @@
         <v>2019-07-24</v>
       </c>
       <c r="B25" s="146">
-        <f>='..\data\2019\07\[2019-07-24.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-24.xls]称重记录'!$L$5</f>
       </c>
       <c r="C25" s="147">
         <f>='..\video_data\2019\07\[2019-07-24.xlsx]data'!$E$11</f>
@@ -10857,7 +12024,7 @@
         <v>2019-07-25</v>
       </c>
       <c r="B26" s="152">
-        <f>='..\data\2019\07\[2019-07-25.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-25.xls]称重记录'!$L$5</f>
       </c>
       <c r="C26" s="153">
         <f>='..\video_data\2019\07\[2019-07-25.xlsx]data'!$E$11</f>
@@ -10875,7 +12042,7 @@
         <v>2019-07-26</v>
       </c>
       <c r="B27" s="158">
-        <f>='..\data\2019\07\[2019-07-26.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-26.xls]称重记录'!$L$5</f>
       </c>
       <c r="C27" s="159">
         <f>='..\video_data\2019\07\[2019-07-26.xlsx]data'!$E$11</f>
@@ -10893,7 +12060,7 @@
         <v>2019-07-27</v>
       </c>
       <c r="B28" s="164">
-        <f>='..\data\2019\07\[2019-07-27.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-27.xls]称重记录'!$L$5</f>
       </c>
       <c r="C28" s="165">
         <f>='..\video_data\2019\07\[2019-07-27.xlsx]data'!$E$11</f>
@@ -10911,7 +12078,7 @@
         <v>2019-07-28</v>
       </c>
       <c r="B29" s="170">
-        <f>='..\data\2019\07\[2019-07-28.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-28.xls]称重记录'!$L$5</f>
       </c>
       <c r="C29" s="171">
         <f>='..\video_data\2019\07\[2019-07-28.xlsx]data'!$E$11</f>
@@ -10929,7 +12096,7 @@
         <v>2019-07-29</v>
       </c>
       <c r="B30" s="176">
-        <f>='..\data\2019\07\[2019-07-29.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-29.xls]称重记录'!$L$5</f>
       </c>
       <c r="C30" s="177">
         <f>='..\video_data\2019\07\[2019-07-29.xlsx]data'!$E$11</f>
@@ -10947,7 +12114,7 @@
         <v>2019-07-30</v>
       </c>
       <c r="B31" s="182">
-        <f>='..\data\2019\07\[2019-07-30.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-30.xls]称重记录'!$L$5</f>
       </c>
       <c r="C31" s="183">
         <f>='..\video_data\2019\07\[2019-07-30.xlsx]data'!$E$11</f>
@@ -10965,7 +12132,7 @@
         <v>2019-07-31</v>
       </c>
       <c r="B32" s="188">
-        <f>='..\data\2019\07\[2019-07-31.xls]称重记录'!$C$3</f>
+        <f>='..\data\2019\07\[2019-07-31.xls]称重记录'!$L$5</f>
       </c>
       <c r="C32" s="189">
         <f>='..\video_data\2019\07\[2019-07-31.xlsx]data'!$E$11</f>
@@ -10979,13 +12146,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="193" t="str">
+      <c r="A33" s="194" t="str">
         <v>汇总</v>
       </c>
-      <c r="B33" s="194">
+      <c r="B33" s="195">
         <f>="总车数："&amp;tmp!B34&amp;"  水渣："&amp;tmp!C34&amp;"  矿粉："&amp;tmp!D34&amp;"  其他："&amp;tmp!E34</f>
       </c>
-      <c r="C33" s="195">
+      <c r="C33" s="193">
         <f>="总车数："&amp;tmp!G34&amp;"  水渣："&amp;tmp!H34&amp;"  矿粉："&amp;tmp!I34&amp;"  其他："&amp;tmp!J34&amp;"  异常："&amp;tmp!K34</f>
       </c>
       <c r="D33" s="196"/>
@@ -11003,7 +12170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col customWidth="true" max="1" min="1" width="12"/>
@@ -11026,34 +12193,34 @@
       <c r="K1" s="198"/>
     </row>
     <row r="2">
-      <c r="A2" s="206" t="str">
+      <c r="A2" s="200" t="str">
         <v>日期</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="201" t="str">
         <v>总车数</v>
       </c>
-      <c r="C2" s="199" t="str">
+      <c r="C2" s="202" t="str">
         <v>水渣</v>
       </c>
-      <c r="D2" s="207" t="str">
+      <c r="D2" s="203" t="str">
         <v>矿粉</v>
       </c>
-      <c r="E2" s="200" t="str">
+      <c r="E2" s="204" t="str">
         <v>其他</v>
       </c>
-      <c r="G2" s="201" t="str">
+      <c r="G2" s="205" t="str">
         <v>总车数</v>
       </c>
-      <c r="H2" s="202" t="str">
+      <c r="H2" s="206" t="str">
         <v>水渣</v>
       </c>
-      <c r="I2" s="208" t="str">
+      <c r="I2" s="207" t="str">
         <v>矿粉</v>
       </c>
-      <c r="J2" s="204" t="str">
+      <c r="J2" s="208" t="str">
         <v>其他</v>
       </c>
-      <c r="K2" s="205" t="str">
+      <c r="K2" s="199" t="str">
         <v>异常</v>
       </c>
     </row>
@@ -12090,4 +13257,278 @@
     <firstHeader>&amp;C&amp;B&amp;16&amp;"微软雅黑,常规"世鑫录像与地泵数据比对2019年07月</firstHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="16"/>
+    <col customWidth="true" max="2" min="2" width="120"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="530" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" s="529" t="str">
+        <v>地泵数据</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="531" t="str">
+        <v>2019-07-01</v>
+      </c>
+      <c r="B2" s="532">
+        <f>='..\data\2019\07\[2019-07-01.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="533" t="str">
+        <v>2019-07-02</v>
+      </c>
+      <c r="B3" s="534">
+        <f>='..\data\2019\07\[2019-07-02.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="535" t="str">
+        <v>2019-07-03</v>
+      </c>
+      <c r="B4" s="536">
+        <f>='..\data\2019\07\[2019-07-03.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="537" t="str">
+        <v>2019-07-04</v>
+      </c>
+      <c r="B5" s="538">
+        <f>='..\data\2019\07\[2019-07-04.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="539" t="str">
+        <v>2019-07-05</v>
+      </c>
+      <c r="B6" s="540">
+        <f>='..\data\2019\07\[2019-07-05.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="541" t="str">
+        <v>2019-07-06</v>
+      </c>
+      <c r="B7" s="542">
+        <f>='..\data\2019\07\[2019-07-06.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="543" t="str">
+        <v>2019-07-07</v>
+      </c>
+      <c r="B8" s="544">
+        <f>='..\data\2019\07\[2019-07-07.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="545" t="str">
+        <v>2019-07-08</v>
+      </c>
+      <c r="B9" s="546">
+        <f>='..\data\2019\07\[2019-07-08.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="547" t="str">
+        <v>2019-07-09</v>
+      </c>
+      <c r="B10" s="548">
+        <f>='..\data\2019\07\[2019-07-09.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="549" t="str">
+        <v>2019-07-10</v>
+      </c>
+      <c r="B11" s="550">
+        <f>='..\data\2019\07\[2019-07-10.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="551" t="str">
+        <v>2019-07-11</v>
+      </c>
+      <c r="B12" s="552">
+        <f>='..\data\2019\07\[2019-07-11.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="553" t="str">
+        <v>2019-07-12</v>
+      </c>
+      <c r="B13" s="554">
+        <f>='..\data\2019\07\[2019-07-12.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="555" t="str">
+        <v>2019-07-13</v>
+      </c>
+      <c r="B14" s="556">
+        <f>='..\data\2019\07\[2019-07-13.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="557" t="str">
+        <v>2019-07-14</v>
+      </c>
+      <c r="B15" s="558">
+        <f>='..\data\2019\07\[2019-07-14.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="559" t="str">
+        <v>2019-07-15</v>
+      </c>
+      <c r="B16" s="560">
+        <f>='..\data\2019\07\[2019-07-15.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="561" t="str">
+        <v>2019-07-16</v>
+      </c>
+      <c r="B17" s="562">
+        <f>='..\data\2019\07\[2019-07-16.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="563" t="str">
+        <v>2019-07-17</v>
+      </c>
+      <c r="B18" s="564">
+        <f>='..\data\2019\07\[2019-07-17.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="565" t="str">
+        <v>2019-07-18</v>
+      </c>
+      <c r="B19" s="566">
+        <f>='..\data\2019\07\[2019-07-18.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="567" t="str">
+        <v>2019-07-19</v>
+      </c>
+      <c r="B20" s="568">
+        <f>='..\data\2019\07\[2019-07-19.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="569" t="str">
+        <v>2019-07-20</v>
+      </c>
+      <c r="B21" s="570">
+        <f>='..\data\2019\07\[2019-07-20.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="571" t="str">
+        <v>2019-07-21</v>
+      </c>
+      <c r="B22" s="572">
+        <f>='..\data\2019\07\[2019-07-21.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="573" t="str">
+        <v>2019-07-22</v>
+      </c>
+      <c r="B23" s="574">
+        <f>='..\data\2019\07\[2019-07-22.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="575" t="str">
+        <v>2019-07-23</v>
+      </c>
+      <c r="B24" s="576">
+        <f>='..\data\2019\07\[2019-07-23.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="577" t="str">
+        <v>2019-07-24</v>
+      </c>
+      <c r="B25" s="578">
+        <f>='..\data\2019\07\[2019-07-24.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="579" t="str">
+        <v>2019-07-25</v>
+      </c>
+      <c r="B26" s="580">
+        <f>='..\data\2019\07\[2019-07-25.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="581" t="str">
+        <v>2019-07-26</v>
+      </c>
+      <c r="B27" s="582">
+        <f>='..\data\2019\07\[2019-07-26.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="583" t="str">
+        <v>2019-07-27</v>
+      </c>
+      <c r="B28" s="584">
+        <f>='..\data\2019\07\[2019-07-27.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="585" t="str">
+        <v>2019-07-28</v>
+      </c>
+      <c r="B29" s="586">
+        <f>='..\data\2019\07\[2019-07-28.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="587" t="str">
+        <v>2019-07-29</v>
+      </c>
+      <c r="B30" s="588">
+        <f>='..\data\2019\07\[2019-07-29.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="589" t="str">
+        <v>2019-07-30</v>
+      </c>
+      <c r="B31" s="590">
+        <f>='..\data\2019\07\[2019-07-30.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="591" t="str">
+        <v>2019-07-31</v>
+      </c>
+      <c r="B32" s="592">
+        <f>='..\data\2019\07\[2019-07-31.xls]称重记录'!$L$6</f>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter differentFirst="true">
+    <firstHeader>&amp;C&amp;B&amp;16&amp;"微软雅黑,常规"世鑫录像与地泵数据比对2019年07月</firstHeader>
+  </headerFooter>
+</worksheet>
 </file>